--- a/qa/01.测试用例/副本系统/对局设计/对局设计测试用例.xlsx
+++ b/qa/01.测试用例/副本系统/对局设计/对局设计测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="11355" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="11355" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="进程逻辑" sheetId="3" r:id="rId3"/>
     <sheet name="对局UI" sheetId="6" r:id="rId4"/>
     <sheet name="战斗序列" sheetId="8" r:id="rId5"/>
+    <sheet name="测试情况" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1169">
   <si>
     <t>更新日期</t>
   </si>
@@ -4594,19 +4595,63 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>effectsearchbug，不好测</t>
+    <t>wangl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>client：551</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行换怪逻辑及操作测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectsearchbug</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>wangl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>client：551</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行换怪逻辑及操作测试</t>
+    <t>测试情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试内容：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换宠基本操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局ui摆放位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试内容：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换宠ui表现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp中的换宠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换宠时释放大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有pvp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有血条状态等ui</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5082,7 +5127,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5397,6 +5442,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="211">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5611,7 +5657,7 @@
     <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="38">
     <dxf>
       <font>
         <b/>
@@ -5917,32 +5963,6 @@
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
       </font>
     </dxf>
   </dxfs>
@@ -6541,7 +6561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -6610,14 +6630,14 @@
         <v>42133</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="101" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -6638,7 +6658,7 @@
   <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="89" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="H126" sqref="H126"/>
@@ -8977,10 +8997,10 @@
   <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -11359,8 +11379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M251"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169:XFD170"/>
+    <sheetView topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13292,7 +13312,7 @@
         <v>4</v>
       </c>
       <c r="J165" s="22" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
@@ -14464,4 +14484,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="64" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="64" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="64" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="112">
+        <v>42136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="64" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="64" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="64" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="64" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="64" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="64" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="64" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/qa/01.测试用例/副本系统/对局设计/对局设计测试用例.xlsx
+++ b/qa/01.测试用例/副本系统/对局设计/对局设计测试用例.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="11355" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="11355" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
     <sheet name="对局流程" sheetId="1" r:id="rId2"/>
     <sheet name="进程逻辑" sheetId="3" r:id="rId3"/>
     <sheet name="对局UI" sheetId="6" r:id="rId4"/>
-    <sheet name="战斗序列" sheetId="8" r:id="rId5"/>
-    <sheet name="测试情况" sheetId="9" r:id="rId6"/>
+    <sheet name="测试情况" sheetId="9" r:id="rId5"/>
+    <sheet name="战斗序列" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="1227">
   <si>
     <t>更新日期</t>
   </si>
@@ -4639,10 +4639,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>换宠时释放大招</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>没有大招</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4652,6 +4648,245 @@
   </si>
   <si>
     <t>没有血条状态等ui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>站位与刷怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>有播动画log，没动画模块，并且单进程单对局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有播动画log，没动画模块，并且单进程单对局</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>没做</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP对局基础</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能测一个对局的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物退场，返场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡退场只有逻辑，其他退场返场没有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没ai，没集火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招逻辑。换宠时释放大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没pvp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗序列情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局中，查看怪物第一次出手时，速度计算情况，波动系数为K=1000，总速度为v，波动系数为x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v=100，x=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v=100，x=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出手系数=K/（v*x）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出手系数=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出手系数=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v=10，x=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出手系数=100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物A出手系数为a，怪物B出手系数为b，查看怪物出手顺序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a先行动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b先行动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗序列情况-波动系数情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置波动系数区间为(a,b],多次进行计算，查看每次计算时，波动系数变化情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动系数范围在(0,10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动系数范围在(3,10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=0,b=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=3,b=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗序列情况-出手系数变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a&lt;b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a&gt;b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次出手时,出手系数计算情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次出手时，出手系数计算情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局中配置波动系数为K=1000，波动系数为10，配置怪物A速度为10，怪物B速度为15，，查看出手系数计算情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a的出手系数=10
+b的出手系数=6.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a的出手系数=1000/(10*10+10*10)=5
+b的出手系数=6.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a的出手系数=10
+b的出手系数=1000/(15*10+10*15)=3.333</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗序列情况-速度累计情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次行动随机出x=a，查看A出手系数计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A出手系数=1000/(10*a)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次行动后随机出x=b，查看A出手系数累计情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局中配置波动系数为K=1000，波动系数为x（1&lt;x&lt;2），配置怪物A速度为10，怪物B速度为100000，，查看速度累计情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A出手系数=1000/(10*a+10*b)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改战斗序列测试用例，添加测试情况切页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab随机一个行动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响不大，现在是按照guid小的出手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4659,7 +4894,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4803,6 +5038,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -5127,7 +5370,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5430,6 +5673,10 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5442,7 +5689,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="211">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5657,7 +5903,7 @@
     <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="73">
     <dxf>
       <font>
         <b/>
@@ -5707,6 +5953,251 @@
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -5979,6 +6470,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>503464</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>156964</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>175321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13838464" y="15580178"/>
+          <a:ext cx="17914286" cy="1685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6562,7 +7096,7 @@
   <dimension ref="B22:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6641,9 +7175,15 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B26" s="100"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="100">
+        <v>42137</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>1224</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="101"/>
     </row>
@@ -6658,10 +7198,10 @@
   <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="89" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H126" sqref="H126"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6684,12 +7224,12 @@
       <c r="C1" s="10"/>
       <c r="D1" s="15"/>
       <c r="E1" s="14"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
     </row>
     <row r="2" spans="1:13" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -6768,7 +7308,9 @@
       <c r="G5" s="87" t="s">
         <v>900</v>
       </c>
-      <c r="H5" s="98"/>
+      <c r="H5" s="98" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B6" s="84"/>
@@ -6783,7 +7325,12 @@
       <c r="G6" s="87" t="s">
         <v>1098</v>
       </c>
-      <c r="H6" s="98"/>
+      <c r="H6" s="109" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>1173</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B7" s="84"/>
@@ -6931,7 +7478,7 @@
       </c>
       <c r="H16" s="98"/>
     </row>
-    <row r="17" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
       <c r="D17" s="56"/>
@@ -6940,7 +7487,7 @@
       <c r="G17" s="87"/>
       <c r="H17" s="98"/>
     </row>
-    <row r="18" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B18" s="84" t="s">
         <v>111</v>
       </c>
@@ -6959,7 +7506,7 @@
       </c>
       <c r="H18" s="98"/>
     </row>
-    <row r="19" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B19" s="84"/>
       <c r="C19" s="84"/>
       <c r="D19" s="56">
@@ -6974,7 +7521,7 @@
       </c>
       <c r="H19" s="98"/>
     </row>
-    <row r="20" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B20" s="84"/>
       <c r="C20" s="84"/>
       <c r="D20" s="56">
@@ -6989,7 +7536,7 @@
       </c>
       <c r="H20" s="98"/>
     </row>
-    <row r="21" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B21" s="84"/>
       <c r="C21" s="84"/>
       <c r="D21" s="56">
@@ -7006,7 +7553,7 @@
       </c>
       <c r="H21" s="98"/>
     </row>
-    <row r="22" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B22" s="84"/>
       <c r="C22" s="84"/>
       <c r="D22" s="56"/>
@@ -7019,10 +7566,10 @@
       </c>
       <c r="H22" s="98"/>
     </row>
-    <row r="23" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="H23" s="98"/>
     </row>
-    <row r="24" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B24" s="23" t="s">
         <v>110</v>
       </c>
@@ -7041,9 +7588,14 @@
       <c r="G24" s="86" t="s">
         <v>919</v>
       </c>
-      <c r="H24" s="98"/>
-    </row>
-    <row r="25" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="H24" s="109" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="C25" s="27"/>
       <c r="D25" s="56"/>
       <c r="E25" s="85"/>
@@ -7055,7 +7607,7 @@
       </c>
       <c r="H25" s="98"/>
     </row>
-    <row r="26" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="C26" s="27"/>
       <c r="D26" s="28">
         <v>2</v>
@@ -7071,7 +7623,7 @@
       </c>
       <c r="H26" s="98"/>
     </row>
-    <row r="27" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="C27" s="27"/>
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
@@ -7083,7 +7635,7 @@
       </c>
       <c r="H27" s="98"/>
     </row>
-    <row r="28" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
@@ -7095,7 +7647,7 @@
       </c>
       <c r="H28" s="98"/>
     </row>
-    <row r="29" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -7107,7 +7659,7 @@
       </c>
       <c r="H29" s="98"/>
     </row>
-    <row r="30" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="C30" s="27"/>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
@@ -7119,7 +7671,7 @@
       </c>
       <c r="H30" s="98"/>
     </row>
-    <row r="31" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="C31" s="27"/>
       <c r="D31" s="28">
         <v>3</v>
@@ -7133,7 +7685,7 @@
       </c>
       <c r="H31" s="98"/>
     </row>
-    <row r="32" spans="2:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" ht="17.25" x14ac:dyDescent="0.35">
       <c r="C32" s="27"/>
       <c r="D32" s="28">
         <v>4</v>
@@ -8962,28 +9514,28 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="A2:IV3">
-    <cfRule type="cellIs" dxfId="37" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="11" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:IV3">
-    <cfRule type="cellIs" dxfId="35" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="9" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H186">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H186">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8994,13 +9546,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:M225"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F183" sqref="F183"/>
+      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9022,12 +9574,12 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="42"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
     </row>
     <row r="2" spans="1:13" s="16" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -9771,215 +10323,246 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D61" s="24"/>
     </row>
-    <row r="62" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55" t="s">
+    <row r="62" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B62" s="37" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D62" s="24">
+        <v>1</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G62" s="53" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H62" s="99" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D63" s="24"/>
+      <c r="F63" s="53" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G63" s="53" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H63" s="99" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D64" s="24"/>
+      <c r="F64" s="53" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G64" s="53" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H64" s="99" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D65" s="24"/>
+      <c r="F65" s="53" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G65" s="53" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H65" s="99" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="D66" s="24">
+        <v>2</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F66" s="53" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G66" s="53" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H66" s="99" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D67" s="24"/>
+      <c r="F67" s="53" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G67" s="53" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H67" s="99" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J67" s="52" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D68" s="24"/>
+      <c r="F68" s="53" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G68" s="53" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H68" s="99" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D69" s="24"/>
+    </row>
+    <row r="70" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="B70" s="37" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D70" s="24">
+        <v>1</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F70" s="53" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G70" s="53" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H70" s="99" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D71" s="24"/>
+      <c r="F71" s="53" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G71" s="53" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H71" s="99" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D72" s="24"/>
+    </row>
+    <row r="73" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B73" s="37" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D73" s="24">
+        <v>1</v>
+      </c>
+      <c r="E73" s="45" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F73" s="53" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G73" s="53" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H73" s="99" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="D74" s="24"/>
+      <c r="F74" s="53" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G74" s="53" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H74" s="99" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="D75" s="24"/>
+      <c r="F75" s="53" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G75" s="53" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H75" s="99" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D76" s="24"/>
+    </row>
+    <row r="77" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B77" s="37" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D77" s="24">
+        <v>1</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F77" s="53" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G77" s="53" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H77" s="99" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="D78" s="24"/>
+      <c r="F78" s="53" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G78" s="53" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H78" s="99" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D79" s="24"/>
+    </row>
+    <row r="80" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="55"/>
+      <c r="B80" s="55" t="s">
         <v>578</v>
       </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="56"/>
-    </row>
-    <row r="63" spans="1:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>579</v>
-      </c>
-      <c r="D63" s="37">
-        <v>1</v>
-      </c>
-      <c r="E63" s="45" t="s">
-        <v>580</v>
-      </c>
-      <c r="F63" s="45" t="s">
-        <v>582</v>
-      </c>
-      <c r="G63" s="45" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="37"/>
-      <c r="F64" s="45" t="s">
-        <v>583</v>
-      </c>
-      <c r="G64" s="45" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A65" s="37"/>
-      <c r="D65" s="37">
-        <v>2</v>
-      </c>
-      <c r="E65" s="45" t="s">
-        <v>585</v>
-      </c>
-      <c r="F65" s="45" t="s">
-        <v>586</v>
-      </c>
-      <c r="G65" s="45" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="37"/>
-      <c r="F66" s="45" t="s">
-        <v>587</v>
-      </c>
-      <c r="G66" s="45" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="37"/>
-      <c r="D67" s="37">
-        <v>3</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>588</v>
-      </c>
-      <c r="F67" s="45" t="s">
-        <v>592</v>
-      </c>
-      <c r="G67" s="45" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="37"/>
-      <c r="F68" s="45" t="s">
-        <v>590</v>
-      </c>
-      <c r="G68" s="45" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="37"/>
-      <c r="F69" s="45" t="s">
-        <v>593</v>
-      </c>
-      <c r="G69" s="58"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="37"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="D71" s="37">
-        <v>1</v>
-      </c>
-      <c r="E71" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="F71" s="45" t="s">
-        <v>553</v>
-      </c>
-      <c r="G71" s="45" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="37"/>
-      <c r="F72" s="45" t="s">
-        <v>554</v>
-      </c>
-      <c r="G72" s="45" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A73" s="37"/>
-      <c r="D73" s="37">
-        <v>2</v>
-      </c>
-      <c r="E73" s="45" t="s">
-        <v>562</v>
-      </c>
-      <c r="F73" s="45" t="s">
-        <v>563</v>
-      </c>
-      <c r="G73" s="45" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A74" s="37"/>
-      <c r="F74" s="45" t="s">
-        <v>564</v>
-      </c>
-      <c r="G74" s="45" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A75" s="37"/>
-      <c r="F75" s="45" t="s">
-        <v>565</v>
-      </c>
-      <c r="G75" s="45" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A76" s="37"/>
-      <c r="F76" s="45" t="s">
-        <v>568</v>
-      </c>
-      <c r="G76" s="45" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="37"/>
-      <c r="D77" s="37">
-        <v>3</v>
-      </c>
-      <c r="E77" s="45" t="s">
-        <v>567</v>
-      </c>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A78" s="37"/>
-      <c r="F78" s="45" t="s">
-        <v>560</v>
-      </c>
-      <c r="G78" s="45" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A79" s="37"/>
-      <c r="F79" s="45" t="s">
-        <v>559</v>
-      </c>
-      <c r="G79" s="45" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="37"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="56"/>
     </row>
     <row r="81" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A81" s="37"/>
@@ -9987,1017 +10570,1045 @@
         <v>551</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D81" s="37">
         <v>1</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="F81" s="45" t="s">
-        <v>529</v>
+        <v>582</v>
       </c>
       <c r="G81" s="45" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="37"/>
       <c r="F82" s="45" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
       <c r="G82" s="45" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A83" s="37"/>
+      <c r="D83" s="37">
+        <v>2</v>
+      </c>
+      <c r="E83" s="45" t="s">
+        <v>585</v>
+      </c>
       <c r="F83" s="45" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="G83" s="45" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="37"/>
-      <c r="D84" s="37">
-        <v>2</v>
-      </c>
-      <c r="E84" s="45" t="s">
-        <v>607</v>
-      </c>
-      <c r="F84" s="45"/>
+      <c r="F84" s="45" t="s">
+        <v>587</v>
+      </c>
       <c r="G84" s="45" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="37"/>
+      <c r="D85" s="37">
+        <v>3</v>
+      </c>
+      <c r="E85" s="45" t="s">
+        <v>588</v>
+      </c>
       <c r="F85" s="45" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="G85" s="45" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="37"/>
-      <c r="F86" s="47" t="s">
-        <v>968</v>
-      </c>
-      <c r="G86" s="47" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="F86" s="45" t="s">
+        <v>590</v>
+      </c>
+      <c r="G86" s="45" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="37"/>
       <c r="F87" s="45" t="s">
-        <v>612</v>
-      </c>
-      <c r="G87" s="45" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+        <v>593</v>
+      </c>
+      <c r="G87" s="58"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="37"/>
-      <c r="F88" s="45" t="s">
-        <v>613</v>
-      </c>
-      <c r="G88" s="45" t="s">
-        <v>673</v>
-      </c>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="37"/>
-      <c r="F89" s="47" t="s">
-        <v>966</v>
-      </c>
-      <c r="G89" s="47" t="s">
-        <v>967</v>
+      <c r="B89" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="D89" s="37">
+        <v>1</v>
+      </c>
+      <c r="E89" s="45" t="s">
+        <v>552</v>
+      </c>
+      <c r="F89" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="G89" s="45" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="37"/>
-      <c r="F90" s="47" t="s">
-        <v>619</v>
-      </c>
-      <c r="G90" s="47" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F90" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="G90" s="45" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A91" s="37"/>
       <c r="D91" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>610</v>
+        <v>562</v>
       </c>
       <c r="F91" s="45" t="s">
-        <v>611</v>
+        <v>563</v>
       </c>
       <c r="G91" s="45" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A92" s="37"/>
       <c r="F92" s="45" t="s">
-        <v>994</v>
+        <v>564</v>
       </c>
       <c r="G92" s="45" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A93" s="37"/>
-      <c r="D93" s="55">
-        <v>4</v>
-      </c>
-      <c r="E93" s="47" t="s">
-        <v>995</v>
-      </c>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F93" s="45" t="s">
+        <v>565</v>
+      </c>
+      <c r="G93" s="45" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A94" s="37"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45"/>
-    </row>
-    <row r="95" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F94" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="G94" s="45" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="37"/>
-      <c r="B95" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>527</v>
-      </c>
       <c r="D95" s="37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>545</v>
-      </c>
-      <c r="F95" s="45" t="s">
-        <v>529</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="F95" s="45"/>
       <c r="G95" s="45" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A96" s="37"/>
       <c r="F96" s="45" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="G96" s="45" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A97" s="37"/>
       <c r="F97" s="45" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
       <c r="G97" s="45" t="s">
-        <v>530</v>
+        <v>561</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="37"/>
-      <c r="D98" s="37">
-        <v>2</v>
-      </c>
-      <c r="E98" s="45" t="s">
-        <v>531</v>
-      </c>
-      <c r="F98" s="45" t="s">
-        <v>532</v>
-      </c>
-      <c r="G98" s="45" t="s">
-        <v>573</v>
-      </c>
+      <c r="F98" s="45"/>
+      <c r="G98" s="45"/>
     </row>
     <row r="99" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A99" s="37"/>
+      <c r="B99" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="D99" s="37">
+        <v>1</v>
+      </c>
+      <c r="E99" s="45" t="s">
+        <v>575</v>
+      </c>
       <c r="F99" s="45" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G99" s="45" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A100" s="37"/>
-      <c r="D100" s="37">
-        <v>3</v>
-      </c>
-      <c r="E100" s="45" t="s">
-        <v>537</v>
-      </c>
-      <c r="F100" s="45"/>
+      <c r="F100" s="45" t="s">
+        <v>535</v>
+      </c>
       <c r="G100" s="45" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="37"/>
       <c r="F101" s="45" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="G101" s="45" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="37"/>
-      <c r="F102" s="45" t="s">
-        <v>538</v>
-      </c>
+      <c r="D102" s="37">
+        <v>2</v>
+      </c>
+      <c r="E102" s="45" t="s">
+        <v>607</v>
+      </c>
+      <c r="F102" s="45"/>
       <c r="G102" s="45" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="37"/>
       <c r="F103" s="45" t="s">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="G103" s="45" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="37"/>
-      <c r="F104" s="45" t="s">
-        <v>740</v>
-      </c>
-      <c r="G104" s="45" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F104" s="47" t="s">
+        <v>968</v>
+      </c>
+      <c r="G104" s="47" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A105" s="37"/>
-      <c r="D105" s="55">
-        <v>4</v>
-      </c>
-      <c r="E105" s="47" t="s">
-        <v>997</v>
-      </c>
-      <c r="F105" s="47"/>
-      <c r="G105" s="47" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F105" s="45" t="s">
+        <v>612</v>
+      </c>
+      <c r="G105" s="45" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A106" s="37"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-    </row>
-    <row r="107" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F106" s="45" t="s">
+        <v>613</v>
+      </c>
+      <c r="G106" s="45" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="37"/>
-      <c r="B107" s="37" t="s">
-        <v>627</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>544</v>
-      </c>
-      <c r="D107" s="37">
-        <v>1</v>
-      </c>
-      <c r="E107" s="45" t="s">
-        <v>614</v>
-      </c>
-      <c r="F107" s="45" t="s">
-        <v>548</v>
-      </c>
-      <c r="G107" s="45" t="s">
-        <v>546</v>
+      <c r="F107" s="47" t="s">
+        <v>966</v>
+      </c>
+      <c r="G107" s="47" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="37"/>
-      <c r="F108" s="45" t="s">
-        <v>549</v>
-      </c>
-      <c r="G108" s="45" t="s">
-        <v>550</v>
+      <c r="F108" s="47" t="s">
+        <v>619</v>
+      </c>
+      <c r="G108" s="47" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="37"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-    </row>
-    <row r="110" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="D109" s="37">
+        <v>3</v>
+      </c>
+      <c r="E109" s="45" t="s">
+        <v>610</v>
+      </c>
+      <c r="F109" s="45" t="s">
+        <v>611</v>
+      </c>
+      <c r="G109" s="45" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A110" s="37"/>
-      <c r="D110" s="55">
-        <v>1</v>
-      </c>
-      <c r="E110" s="47" t="s">
-        <v>988</v>
-      </c>
-      <c r="F110" s="47" t="s">
-        <v>989</v>
-      </c>
-      <c r="G110" s="47" t="s">
-        <v>987</v>
+      <c r="F110" s="45" t="s">
+        <v>994</v>
+      </c>
+      <c r="G110" s="45" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="37"/>
-      <c r="D111" s="55"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47" t="s">
-        <v>993</v>
-      </c>
+      <c r="D111" s="55">
+        <v>4</v>
+      </c>
+      <c r="E111" s="47" t="s">
+        <v>995</v>
+      </c>
+      <c r="F111" s="47"/>
       <c r="G111" s="47" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="37"/>
-      <c r="D112" s="55"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="47" t="s">
-        <v>991</v>
-      </c>
-      <c r="G112" s="47" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+    </row>
+    <row r="113" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A113" s="37"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
-    </row>
-    <row r="114" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B113" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="D113" s="37">
+        <v>1</v>
+      </c>
+      <c r="E113" s="45" t="s">
+        <v>545</v>
+      </c>
+      <c r="F113" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="G113" s="45" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A114" s="37"/>
-      <c r="D114" s="37">
-        <v>1</v>
-      </c>
-      <c r="E114" s="45" t="s">
-        <v>615</v>
-      </c>
       <c r="F114" s="45" t="s">
-        <v>616</v>
+        <v>535</v>
       </c>
       <c r="G114" s="45" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="37"/>
       <c r="F115" s="45" t="s">
-        <v>617</v>
+        <v>528</v>
       </c>
       <c r="G115" s="45" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="37"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-    </row>
-    <row r="117" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="D116" s="37">
+        <v>2</v>
+      </c>
+      <c r="E116" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="F116" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="G116" s="45" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A117" s="37"/>
-      <c r="D117" s="37" t="s">
-        <v>621</v>
-      </c>
-      <c r="E117" s="45" t="s">
-        <v>622</v>
-      </c>
       <c r="F117" s="45" t="s">
-        <v>897</v>
+        <v>533</v>
       </c>
       <c r="G117" s="45" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" s="37"/>
-      <c r="F118" s="45" t="s">
-        <v>625</v>
-      </c>
+      <c r="D118" s="37">
+        <v>3</v>
+      </c>
+      <c r="E118" s="45" t="s">
+        <v>537</v>
+      </c>
+      <c r="F118" s="45"/>
       <c r="G118" s="45" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A119" s="37"/>
       <c r="F119" s="45" t="s">
+        <v>539</v>
+      </c>
+      <c r="G119" s="45" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A120" s="37"/>
+      <c r="F120" s="45" t="s">
+        <v>538</v>
+      </c>
+      <c r="G120" s="45" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121" s="37"/>
+      <c r="F121" s="45" t="s">
+        <v>542</v>
+      </c>
+      <c r="G121" s="45" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122" s="37"/>
+      <c r="F122" s="45" t="s">
+        <v>740</v>
+      </c>
+      <c r="G122" s="45" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A123" s="37"/>
+      <c r="D123" s="55">
+        <v>4</v>
+      </c>
+      <c r="E123" s="47" t="s">
+        <v>997</v>
+      </c>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124" s="37"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="45"/>
+    </row>
+    <row r="125" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A125" s="37"/>
+      <c r="B125" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D125" s="37">
+        <v>1</v>
+      </c>
+      <c r="E125" s="45" t="s">
+        <v>614</v>
+      </c>
+      <c r="F125" s="45" t="s">
+        <v>548</v>
+      </c>
+      <c r="G125" s="45" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A126" s="37"/>
+      <c r="F126" s="45" t="s">
+        <v>549</v>
+      </c>
+      <c r="G126" s="45" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A127" s="37"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+    </row>
+    <row r="128" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A128" s="37"/>
+      <c r="D128" s="55">
+        <v>1</v>
+      </c>
+      <c r="E128" s="47" t="s">
+        <v>988</v>
+      </c>
+      <c r="F128" s="47" t="s">
+        <v>989</v>
+      </c>
+      <c r="G128" s="47" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A129" s="37"/>
+      <c r="D129" s="55"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="47" t="s">
+        <v>993</v>
+      </c>
+      <c r="G129" s="47" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A130" s="37"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="47"/>
+      <c r="F130" s="47" t="s">
+        <v>991</v>
+      </c>
+      <c r="G130" s="47" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A131" s="37"/>
+      <c r="F131" s="45"/>
+      <c r="G131" s="45"/>
+    </row>
+    <row r="132" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="A132" s="37"/>
+      <c r="D132" s="37">
+        <v>1</v>
+      </c>
+      <c r="E132" s="45" t="s">
+        <v>615</v>
+      </c>
+      <c r="F132" s="45" t="s">
+        <v>616</v>
+      </c>
+      <c r="G132" s="45" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A133" s="37"/>
+      <c r="F133" s="45" t="s">
+        <v>617</v>
+      </c>
+      <c r="G133" s="45" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A134" s="37"/>
+      <c r="F134" s="45"/>
+      <c r="G134" s="45"/>
+    </row>
+    <row r="135" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="A135" s="37"/>
+      <c r="D135" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="E135" s="45" t="s">
+        <v>622</v>
+      </c>
+      <c r="F135" s="45" t="s">
+        <v>897</v>
+      </c>
+      <c r="G135" s="45" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A136" s="37"/>
+      <c r="F136" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="G136" s="45" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A137" s="37"/>
+      <c r="F137" s="45" t="s">
         <v>624</v>
       </c>
-      <c r="G119" s="45" t="s">
+      <c r="G137" s="45" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="B121" s="67" t="s">
+    <row r="139" spans="1:8" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B139" s="67" t="s">
         <v>637</v>
       </c>
-      <c r="C121" s="68" t="s">
+      <c r="C139" s="68" t="s">
         <v>628</v>
       </c>
-      <c r="D121" s="67">
+      <c r="D139" s="67">
         <v>1</v>
       </c>
-      <c r="E121" s="69" t="s">
+      <c r="E139" s="69" t="s">
         <v>629</v>
       </c>
-      <c r="F121" s="70"/>
-      <c r="G121" s="70" t="s">
+      <c r="F139" s="70"/>
+      <c r="G139" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="H121" s="67"/>
-    </row>
-    <row r="122" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="67"/>
-      <c r="C122" s="68"/>
-      <c r="D122" s="67">
+      <c r="H139" s="67"/>
+    </row>
+    <row r="140" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="67"/>
+      <c r="C140" s="68"/>
+      <c r="D140" s="67">
         <v>2</v>
       </c>
-      <c r="E122" s="69" t="s">
+      <c r="E140" s="69" t="s">
         <v>631</v>
       </c>
-      <c r="F122" s="70" t="s">
+      <c r="F140" s="70" t="s">
         <v>632</v>
       </c>
-      <c r="G122" s="70" t="s">
+      <c r="G140" s="70" t="s">
         <v>633</v>
       </c>
-      <c r="H122" s="67"/>
-    </row>
-    <row r="123" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="67"/>
-      <c r="C123" s="68"/>
-      <c r="D123" s="67"/>
-      <c r="E123" s="69"/>
-      <c r="F123" s="70" t="s">
+      <c r="H140" s="67"/>
+    </row>
+    <row r="141" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="67"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="69"/>
+      <c r="F141" s="70" t="s">
         <v>634</v>
       </c>
-      <c r="G123" s="70" t="s">
+      <c r="G141" s="70" t="s">
         <v>635</v>
       </c>
-      <c r="H123" s="67"/>
-    </row>
-    <row r="124" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="67"/>
-      <c r="C124" s="68"/>
-      <c r="D124" s="67"/>
-      <c r="E124" s="72" t="s">
+      <c r="H141" s="67"/>
+    </row>
+    <row r="142" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="67"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="72" t="s">
         <v>636</v>
       </c>
-      <c r="F124" s="70"/>
-      <c r="G124" s="70"/>
-      <c r="H124" s="67"/>
-    </row>
-    <row r="125" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="67"/>
-      <c r="C125" s="68"/>
-      <c r="D125" s="67"/>
-      <c r="E125" s="69"/>
-      <c r="F125" s="70"/>
-      <c r="G125" s="70"/>
-      <c r="H125" s="67"/>
-    </row>
-    <row r="126" spans="1:8" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="B126" s="67" t="s">
+      <c r="F142" s="70"/>
+      <c r="G142" s="70"/>
+      <c r="H142" s="67"/>
+    </row>
+    <row r="143" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="67"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="69"/>
+      <c r="F143" s="70"/>
+      <c r="G143" s="70"/>
+      <c r="H143" s="67"/>
+    </row>
+    <row r="144" spans="1:8" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B144" s="67" t="s">
         <v>637</v>
       </c>
-      <c r="C126" s="68" t="s">
+      <c r="C144" s="68" t="s">
         <v>638</v>
       </c>
-      <c r="D126" s="67">
+      <c r="D144" s="67">
         <v>1</v>
       </c>
-      <c r="E126" s="69" t="s">
+      <c r="E144" s="69" t="s">
         <v>639</v>
       </c>
-      <c r="F126" s="70" t="s">
+      <c r="F144" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="G126" s="70" t="s">
+      <c r="G144" s="70" t="s">
         <v>641</v>
       </c>
-      <c r="H126" s="67"/>
-    </row>
-    <row r="127" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="67"/>
-      <c r="C127" s="68"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="69"/>
-      <c r="F127" s="70" t="s">
+      <c r="H144" s="67"/>
+    </row>
+    <row r="145" spans="2:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B145" s="67"/>
+      <c r="C145" s="68"/>
+      <c r="D145" s="67"/>
+      <c r="E145" s="69"/>
+      <c r="F145" s="70" t="s">
         <v>642</v>
       </c>
-      <c r="G127" s="70" t="s">
+      <c r="G145" s="70" t="s">
         <v>643</v>
       </c>
-      <c r="H127" s="67"/>
-    </row>
-    <row r="128" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="67"/>
-      <c r="C128" s="68"/>
-      <c r="D128" s="67">
+      <c r="H145" s="67"/>
+    </row>
+    <row r="146" spans="2:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B146" s="67"/>
+      <c r="C146" s="68"/>
+      <c r="D146" s="67">
         <v>2</v>
       </c>
-      <c r="E128" s="69" t="s">
+      <c r="E146" s="69" t="s">
         <v>644</v>
       </c>
-      <c r="F128" s="70" t="s">
+      <c r="F146" s="70" t="s">
         <v>645</v>
       </c>
-      <c r="G128" s="70" t="s">
+      <c r="G146" s="70" t="s">
         <v>648</v>
       </c>
-      <c r="H128" s="67"/>
-    </row>
-    <row r="129" spans="2:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="67"/>
-      <c r="C129" s="68"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="69"/>
-      <c r="F129" s="70" t="s">
+      <c r="H146" s="67"/>
+    </row>
+    <row r="147" spans="2:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="67"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="67"/>
+      <c r="E147" s="69"/>
+      <c r="F147" s="70" t="s">
         <v>646</v>
       </c>
-      <c r="G129" s="70" t="s">
+      <c r="G147" s="70" t="s">
         <v>647</v>
       </c>
-      <c r="H129" s="67"/>
-    </row>
-    <row r="130" spans="2:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="67"/>
-      <c r="C130" s="68"/>
-      <c r="D130" s="67"/>
-      <c r="E130" s="69"/>
-      <c r="F130" s="70"/>
-      <c r="G130" s="70"/>
-      <c r="H130" s="67"/>
-    </row>
-    <row r="131" spans="2:8" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="B131" s="67"/>
-      <c r="C131" s="68"/>
-      <c r="D131" s="67">
+      <c r="H147" s="67"/>
+    </row>
+    <row r="148" spans="2:8" s="71" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B148" s="67"/>
+      <c r="C148" s="68"/>
+      <c r="D148" s="67"/>
+      <c r="E148" s="69"/>
+      <c r="F148" s="70"/>
+      <c r="G148" s="70"/>
+      <c r="H148" s="67"/>
+    </row>
+    <row r="149" spans="2:8" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B149" s="67"/>
+      <c r="C149" s="68"/>
+      <c r="D149" s="67">
         <v>1</v>
       </c>
-      <c r="E131" s="69" t="s">
+      <c r="E149" s="69" t="s">
         <v>639</v>
       </c>
-      <c r="F131" s="70" t="s">
+      <c r="F149" s="70" t="s">
         <v>649</v>
       </c>
-      <c r="G131" s="70" t="s">
+      <c r="G149" s="70" t="s">
         <v>651</v>
       </c>
-      <c r="H131" s="67"/>
-    </row>
-    <row r="132" spans="2:8" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="B132" s="67"/>
-      <c r="C132" s="68"/>
-      <c r="D132" s="67"/>
-      <c r="E132" s="69"/>
-      <c r="F132" s="70" t="s">
+      <c r="H149" s="67"/>
+    </row>
+    <row r="150" spans="2:8" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B150" s="67"/>
+      <c r="C150" s="68"/>
+      <c r="D150" s="67"/>
+      <c r="E150" s="69"/>
+      <c r="F150" s="70" t="s">
         <v>650</v>
       </c>
-      <c r="G132" s="70" t="s">
+      <c r="G150" s="70" t="s">
         <v>652</v>
       </c>
-      <c r="H132" s="67"/>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B134" s="73" t="s">
+      <c r="H150" s="67"/>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B152" s="73" t="s">
         <v>551</v>
       </c>
-      <c r="C134" s="28" t="s">
+      <c r="C152" s="28" t="s">
         <v>653</v>
       </c>
-      <c r="D134" s="73">
+      <c r="D152" s="73">
         <v>1</v>
       </c>
-      <c r="E134" s="74" t="s">
+      <c r="E152" s="74" t="s">
         <v>742</v>
       </c>
-      <c r="F134" s="75"/>
-      <c r="G134" s="75" t="s">
+      <c r="F152" s="75"/>
+      <c r="G152" s="75" t="s">
         <v>743</v>
       </c>
-      <c r="H134" s="73"/>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B135" s="73"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="73"/>
-      <c r="E135" s="74"/>
-      <c r="F135" s="75"/>
-      <c r="G135" s="75"/>
-      <c r="H135" s="73"/>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B136" s="73"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="73">
+      <c r="H152" s="73"/>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B153" s="73"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="73"/>
+      <c r="E153" s="74"/>
+      <c r="F153" s="75"/>
+      <c r="G153" s="75"/>
+      <c r="H153" s="73"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B154" s="73"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="73">
         <v>1</v>
       </c>
-      <c r="E136" s="74" t="s">
+      <c r="E154" s="74" t="s">
         <v>744</v>
       </c>
-      <c r="F136" s="75"/>
-      <c r="G136" s="75" t="s">
+      <c r="F154" s="75"/>
+      <c r="G154" s="75" t="s">
         <v>748</v>
       </c>
-      <c r="H136" s="73"/>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B137" s="73"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="73">
+      <c r="H154" s="73"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B155" s="73"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="73">
         <v>2</v>
       </c>
-      <c r="E137" s="74" t="s">
+      <c r="E155" s="74" t="s">
         <v>745</v>
       </c>
-      <c r="F137" s="75" t="s">
+      <c r="F155" s="75" t="s">
         <v>746</v>
       </c>
-      <c r="G137" s="75" t="s">
+      <c r="G155" s="75" t="s">
         <v>749</v>
       </c>
-      <c r="H137" s="73"/>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F138" s="53" t="s">
-        <v>747</v>
-      </c>
-      <c r="G138" s="53" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D139" s="37">
-        <v>3</v>
-      </c>
-      <c r="E139" s="45" t="s">
-        <v>752</v>
-      </c>
-      <c r="G139" s="76"/>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D140" s="37">
-        <v>4</v>
-      </c>
-      <c r="E140" s="45" t="s">
-        <v>751</v>
-      </c>
-      <c r="F140" s="90" t="s">
-        <v>999</v>
-      </c>
-      <c r="G140" s="90" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F141" s="90" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G141" s="90" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F142" s="90" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G142" s="90" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="F143" s="90" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G143" s="90" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="F144" s="90" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G144" s="90" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" s="62" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="59" t="s">
-        <v>654</v>
-      </c>
-      <c r="C147" s="60"/>
-      <c r="D147" s="59"/>
-      <c r="E147" s="63"/>
-      <c r="F147" s="61"/>
-      <c r="G147" s="61"/>
-      <c r="H147" s="60"/>
-    </row>
-    <row r="148" spans="2:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="B148" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>665</v>
-      </c>
-      <c r="D148" s="55">
-        <v>1</v>
-      </c>
-      <c r="E148" s="47" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F148" s="90" t="s">
-        <v>657</v>
-      </c>
-      <c r="G148" s="90" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D149" s="55"/>
-      <c r="E149" s="47"/>
-      <c r="F149" s="90" t="s">
-        <v>655</v>
-      </c>
-      <c r="G149" s="90" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D150" s="55"/>
-      <c r="E150" s="47"/>
-      <c r="F150" s="90" t="s">
-        <v>656</v>
-      </c>
-      <c r="G150" s="90" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D151" s="55">
-        <v>2</v>
-      </c>
-      <c r="E151" s="47" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F151" s="90" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G151" s="90" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D152" s="55"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="90" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G152" s="90" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D153" s="37">
-        <v>3</v>
-      </c>
-      <c r="E153" s="45" t="s">
-        <v>658</v>
-      </c>
-      <c r="F153" s="53" t="s">
-        <v>659</v>
-      </c>
-      <c r="G153" s="53" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F154" s="53" t="s">
-        <v>660</v>
-      </c>
-      <c r="G154" s="53" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F155" s="96" t="s">
-        <v>661</v>
-      </c>
-      <c r="G155" s="96" t="s">
-        <v>662</v>
-      </c>
+      <c r="H155" s="73"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F156" s="53" t="s">
-        <v>670</v>
+        <v>747</v>
       </c>
       <c r="G156" s="53" t="s">
-        <v>662</v>
+        <v>750</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F157" s="53" t="s">
-        <v>671</v>
-      </c>
-      <c r="G157" s="53" t="s">
-        <v>662</v>
-      </c>
+      <c r="D157" s="37">
+        <v>3</v>
+      </c>
+      <c r="E157" s="45" t="s">
+        <v>752</v>
+      </c>
+      <c r="G157" s="76"/>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F158" s="53" t="s">
-        <v>663</v>
-      </c>
-      <c r="G158" s="53" t="s">
-        <v>662</v>
+      <c r="D158" s="37">
+        <v>4</v>
+      </c>
+      <c r="E158" s="45" t="s">
+        <v>751</v>
+      </c>
+      <c r="F158" s="90" t="s">
+        <v>999</v>
+      </c>
+      <c r="G158" s="90" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F159" s="53" t="s">
-        <v>664</v>
-      </c>
-      <c r="G159" s="53" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B161" s="37" t="s">
-        <v>594</v>
-      </c>
-      <c r="C161" s="24" t="s">
-        <v>666</v>
-      </c>
-      <c r="D161" s="37">
+      <c r="F159" s="90" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G159" s="90" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F160" s="90" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G160" s="90" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="F161" s="90" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G161" s="90" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="F162" s="90" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G162" s="90" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B165" s="59" t="s">
+        <v>654</v>
+      </c>
+      <c r="C165" s="60"/>
+      <c r="D165" s="59"/>
+      <c r="E165" s="63"/>
+      <c r="F165" s="61"/>
+      <c r="G165" s="61"/>
+      <c r="H165" s="60"/>
+    </row>
+    <row r="166" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B166" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="C166" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="D166" s="55">
         <v>1</v>
       </c>
-      <c r="E161" s="47" t="s">
-        <v>667</v>
-      </c>
-      <c r="F161" s="57" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G161" s="57" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F162" s="53" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G162" s="53" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F163" s="53" t="s">
-        <v>668</v>
-      </c>
-      <c r="G163" s="53" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="165" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B165" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C165" s="24" t="s">
-        <v>674</v>
-      </c>
-      <c r="D165" s="55">
-        <v>1</v>
-      </c>
-      <c r="E165" s="47" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F165" s="90" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G165" s="90" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D166" s="55"/>
-      <c r="E166" s="47"/>
+      <c r="E166" s="47" t="s">
+        <v>1056</v>
+      </c>
       <c r="F166" s="90" t="s">
-        <v>1054</v>
+        <v>657</v>
       </c>
       <c r="G166" s="90" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.15">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D167" s="55"/>
       <c r="E167" s="47"/>
       <c r="F167" s="90" t="s">
-        <v>1055</v>
+        <v>655</v>
       </c>
       <c r="G167" s="90" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D168" s="55">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D168" s="55"/>
+      <c r="E168" s="47"/>
+      <c r="F168" s="90" t="s">
+        <v>656</v>
+      </c>
+      <c r="G168" s="90" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D169" s="55">
         <v>2</v>
       </c>
-      <c r="E168" s="47" t="s">
+      <c r="E169" s="47" t="s">
         <v>1059</v>
       </c>
-      <c r="F168" s="90" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G168" s="90" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D169" s="55"/>
-      <c r="E169" s="47"/>
       <c r="F169" s="90" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="G169" s="90" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.15">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D170" s="55"/>
       <c r="E170" s="47"/>
       <c r="F170" s="90" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="G170" s="90" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D171" s="55"/>
-      <c r="E171" s="47"/>
-      <c r="F171" s="90" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G171" s="90" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D172" s="55"/>
-      <c r="E172" s="47"/>
-      <c r="F172" s="90"/>
-      <c r="G172" s="90"/>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D173" s="55"/>
-      <c r="E173" s="47"/>
-      <c r="F173" s="90"/>
-      <c r="G173" s="90"/>
-    </row>
-    <row r="174" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="D174" s="37">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D171" s="37">
         <v>3</v>
       </c>
-      <c r="E174" s="45" t="s">
-        <v>675</v>
-      </c>
+      <c r="E171" s="45" t="s">
+        <v>658</v>
+      </c>
+      <c r="F171" s="53" t="s">
+        <v>659</v>
+      </c>
+      <c r="G171" s="53" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F172" s="53" t="s">
+        <v>660</v>
+      </c>
+      <c r="G172" s="53" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F173" s="96" t="s">
+        <v>661</v>
+      </c>
+      <c r="G173" s="96" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F174" s="53" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G174" s="53" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.15">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F175" s="53" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="G175" s="53" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.15">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.15">
       <c r="F176" s="53" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="G176" s="53" t="s">
-        <v>699</v>
+        <v>662</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F177" s="53" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="G177" s="53" t="s">
-        <v>699</v>
+        <v>662</v>
       </c>
     </row>
     <row r="179" spans="2:7" ht="33" x14ac:dyDescent="0.15">
@@ -11005,252 +11616,422 @@
         <v>594</v>
       </c>
       <c r="C179" s="24" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="D179" s="37">
         <v>1</v>
       </c>
       <c r="E179" s="47" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="F179" s="57" t="s">
-        <v>1074</v>
+        <v>1048</v>
       </c>
       <c r="G179" s="57" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F180" s="53" t="s">
-        <v>685</v>
+        <v>1049</v>
       </c>
       <c r="G180" s="53" t="s">
-        <v>688</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F181" s="53" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="G181" s="53" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F182" s="53" t="s">
-        <v>687</v>
-      </c>
-      <c r="G182" s="53" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="184" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B184" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="C184" s="24" t="s">
-        <v>691</v>
-      </c>
-      <c r="D184" s="55">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B183" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="D183" s="55">
         <v>1</v>
       </c>
-      <c r="E184" s="47" t="s">
-        <v>1076</v>
-      </c>
+      <c r="E183" s="47" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F183" s="90" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G183" s="90" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D184" s="55"/>
+      <c r="E184" s="47"/>
       <c r="F184" s="90" t="s">
-        <v>692</v>
+        <v>1054</v>
       </c>
       <c r="G184" s="90" t="s">
-        <v>1077</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D185" s="55"/>
       <c r="E185" s="47"/>
       <c r="F185" s="90" t="s">
-        <v>693</v>
+        <v>1055</v>
       </c>
       <c r="G185" s="90" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D186" s="55"/>
-      <c r="E186" s="47"/>
+      <c r="D186" s="55">
+        <v>2</v>
+      </c>
+      <c r="E186" s="47" t="s">
+        <v>1059</v>
+      </c>
       <c r="F186" s="90" t="s">
-        <v>694</v>
+        <v>1066</v>
       </c>
       <c r="G186" s="90" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D187" s="55">
-        <v>2</v>
-      </c>
-      <c r="E187" s="47" t="s">
-        <v>1059</v>
-      </c>
+      <c r="D187" s="55"/>
+      <c r="E187" s="47"/>
       <c r="F187" s="90" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
       <c r="G187" s="90" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D188" s="55"/>
       <c r="E188" s="47"/>
       <c r="F188" s="90" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G188" s="90" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D189" s="55"/>
+      <c r="E189" s="47"/>
+      <c r="F189" s="90" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G189" s="90" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D190" s="55"/>
+      <c r="E190" s="47"/>
+      <c r="F190" s="90"/>
+      <c r="G190" s="90"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D191" s="55"/>
+      <c r="E191" s="47"/>
+      <c r="F191" s="90"/>
+      <c r="G191" s="90"/>
+    </row>
+    <row r="192" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="D192" s="37">
+        <v>3</v>
+      </c>
+      <c r="E192" s="45" t="s">
+        <v>675</v>
+      </c>
+      <c r="F192" s="53" t="s">
+        <v>676</v>
+      </c>
+      <c r="G192" s="53" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F193" s="53" t="s">
+        <v>677</v>
+      </c>
+      <c r="G193" s="53" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F194" s="53" t="s">
+        <v>678</v>
+      </c>
+      <c r="G194" s="53" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F195" s="53" t="s">
+        <v>679</v>
+      </c>
+      <c r="G195" s="53" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B197" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="C197" s="24" t="s">
+        <v>680</v>
+      </c>
+      <c r="D197" s="37">
+        <v>1</v>
+      </c>
+      <c r="E197" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="F197" s="57" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G197" s="57" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F198" s="53" t="s">
+        <v>685</v>
+      </c>
+      <c r="G198" s="53" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F199" s="53" t="s">
+        <v>686</v>
+      </c>
+      <c r="G199" s="53" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F200" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="G200" s="53" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B202" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>691</v>
+      </c>
+      <c r="D202" s="55">
+        <v>1</v>
+      </c>
+      <c r="E202" s="47" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F202" s="90" t="s">
+        <v>692</v>
+      </c>
+      <c r="G202" s="90" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D203" s="55"/>
+      <c r="E203" s="47"/>
+      <c r="F203" s="90" t="s">
+        <v>693</v>
+      </c>
+      <c r="G203" s="90" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D204" s="55"/>
+      <c r="E204" s="47"/>
+      <c r="F204" s="90" t="s">
+        <v>694</v>
+      </c>
+      <c r="G204" s="90" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D205" s="55">
+        <v>2</v>
+      </c>
+      <c r="E205" s="47" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F205" s="90" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G205" s="90" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D206" s="55"/>
+      <c r="E206" s="47"/>
+      <c r="F206" s="90" t="s">
         <v>1061</v>
       </c>
-      <c r="G188" s="90" t="s">
+      <c r="G206" s="90" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="190" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="E190" s="45" t="s">
+    <row r="208" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="E208" s="45" t="s">
         <v>695</v>
       </c>
-      <c r="F190" s="53" t="s">
+      <c r="F208" s="53" t="s">
         <v>696</v>
       </c>
-      <c r="G190" s="53" t="s">
+      <c r="G208" s="53" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="191" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="F191" s="97" t="s">
+    <row r="209" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F209" s="97" t="s">
         <v>697</v>
       </c>
-      <c r="G191" s="97" t="s">
+      <c r="G209" s="97" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="192" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="F192" s="53" t="s">
+    <row r="210" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F210" s="53" t="s">
         <v>700</v>
       </c>
-      <c r="G192" s="53" t="s">
+      <c r="G210" s="53" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="193" spans="2:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="F193" s="53" t="s">
+    <row r="211" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F211" s="53" t="s">
         <v>701</v>
       </c>
-      <c r="G193" s="53" t="s">
+      <c r="G211" s="53" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="194" spans="2:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="F194" s="53" t="s">
+    <row r="212" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F212" s="53" t="s">
         <v>702</v>
       </c>
-      <c r="G194" s="53" t="s">
+      <c r="G212" s="53" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="195" spans="2:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="F195" s="53" t="s">
+    <row r="213" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F213" s="53" t="s">
         <v>703</v>
       </c>
-      <c r="G195" s="53" t="s">
+      <c r="G213" s="53" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="196" spans="2:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="F196" s="53" t="s">
+    <row r="214" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F214" s="53" t="s">
         <v>704</v>
       </c>
-      <c r="G196" s="53" t="s">
+      <c r="G214" s="53" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="197" spans="2:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="F197" s="53" t="s">
+    <row r="215" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F215" s="53" t="s">
         <v>705</v>
       </c>
-      <c r="G197" s="53" t="s">
+      <c r="G215" s="53" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="198" spans="2:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="F198" s="53" t="s">
+    <row r="216" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F216" s="53" t="s">
         <v>706</v>
       </c>
-      <c r="G198" s="53" t="s">
+      <c r="G216" s="53" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="199" spans="2:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="F199" s="53" t="s">
+    <row r="217" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F217" s="53" t="s">
         <v>707</v>
       </c>
-      <c r="G199" s="53" t="s">
+      <c r="G217" s="53" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="200" spans="2:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="F200" s="53" t="s">
+    <row r="218" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="F218" s="53" t="s">
         <v>708</v>
       </c>
-      <c r="G200" s="53" t="s">
+      <c r="G218" s="53" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="202" spans="2:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="B202" s="37" t="s">
+    <row r="220" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B220" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="C202" s="24" t="s">
+      <c r="C220" s="24" t="s">
         <v>710</v>
       </c>
-      <c r="D202" s="37">
+      <c r="D220" s="37">
         <v>1</v>
       </c>
-      <c r="E202" s="45" t="s">
+      <c r="E220" s="45" t="s">
         <v>684</v>
       </c>
-      <c r="F202" s="57" t="s">
+      <c r="F220" s="57" t="s">
         <v>1074</v>
       </c>
-      <c r="G202" s="57" t="s">
+      <c r="G220" s="57" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F203" s="53" t="s">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F221" s="53" t="s">
         <v>685</v>
       </c>
-      <c r="G203" s="53" t="s">
+      <c r="G221" s="53" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F204" s="53" t="s">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F222" s="53" t="s">
         <v>686</v>
       </c>
-      <c r="G204" s="53" t="s">
+      <c r="G222" s="53" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="F205" s="53" t="s">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F223" s="53" t="s">
         <v>687</v>
       </c>
-      <c r="G205" s="53" t="s">
+      <c r="G223" s="53" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="207" spans="2:8" s="62" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B207" s="59"/>
-      <c r="C207" s="60"/>
-      <c r="D207" s="59"/>
-      <c r="E207" s="63"/>
-      <c r="F207" s="61"/>
-      <c r="G207" s="61"/>
-      <c r="H207" s="59"/>
+    <row r="225" spans="2:8" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B225" s="59"/>
+      <c r="C225" s="60"/>
+      <c r="D225" s="59"/>
+      <c r="E225" s="63"/>
+      <c r="F225" s="61"/>
+      <c r="G225" s="61"/>
+      <c r="H225" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11259,97 +12040,244 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:G3 D4:F4 D19:G25 A34:B52 K34:IV52 H2:IV4">
-    <cfRule type="cellIs" dxfId="31" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="84" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="85" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:G3 A4:B4 D4:F4 D19:G25 A34:B52 K34:IV52 H2:IV4">
-    <cfRule type="cellIs" dxfId="29" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="83" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="28" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="81" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="82" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="26" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="80" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G18">
-    <cfRule type="cellIs" dxfId="25" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="78" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="79" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G18">
-    <cfRule type="cellIs" dxfId="23" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="77" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:G29 D32:G32 D30:F31">
-    <cfRule type="cellIs" dxfId="22" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="72" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="73" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:G29 D32:G32 D30:F31">
-    <cfRule type="cellIs" dxfId="20" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="71" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="19" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="17" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="68" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="16" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="66" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="67" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="14" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="65" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F39 F43:F49 E50:F50 E44:E49 I46:I50 D34:E35 G34:G50 C34:C42 E41:F42 D40:D42 C43:D50 J34:J50 C51:J52 H34:I43 H44:H50">
-    <cfRule type="cellIs" dxfId="13" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:E35 E50:F50 F43:F49 F34:F39 E44:E49 I46:I50 G34:G50 E41:F42 C34:C42 D40:D42 C43:D50 J34:J50 C51:J52 H34:I43 H44:H50">
-    <cfRule type="cellIs" dxfId="11" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="62" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62:H65">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62:H65">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62:H65">
+    <cfRule type="cellIs" dxfId="36" priority="31" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:H75">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:H75">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:H75">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77:H78">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77:H78">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77:H78">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70:H71">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70:H71">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70:H71">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
     <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -11357,7 +12285,7 @@
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+  <conditionalFormatting sqref="H67">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -11365,13 +12293,14 @@
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+  <conditionalFormatting sqref="H67">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11379,7 +12308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M251"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
@@ -11406,12 +12335,12 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
     </row>
     <row r="2" spans="1:13" s="18" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -14251,10 +15180,145 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="64" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="64" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="64" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="108">
+        <v>42136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="64" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="64" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="64" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="64" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="64" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="64" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="64" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="64" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="64" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="64" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="64" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="64" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:L9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -14484,80 +15548,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="64" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="64"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="112">
-        <v>42136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="64" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="64" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="64" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="64" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="64" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="64" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="64" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/qa/01.测试用例/副本系统/对局设计/对局设计测试用例.xlsx
+++ b/qa/01.测试用例/副本系统/对局设计/对局设计测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9350" windowHeight="3240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9350" windowHeight="3240" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <sheet name="animation.xml配置说明" sheetId="13" r:id="rId8"/>
     <sheet name="战斗序列" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="2523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="2524">
   <si>
     <t>更新日期</t>
   </si>
@@ -10438,6 +10438,10 @@
   <si>
     <t>wangl</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instancedrop.csv</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -15470,8 +15474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21199,10 +21203,10 @@
   <dimension ref="A1:M265"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D291" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H219" sqref="H219"/>
+      <selection pane="bottomRight" activeCell="G223" sqref="G223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -33726,8 +33730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -36957,6 +36961,9 @@
       </c>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C230" s="33" t="s">
+        <v>2523</v>
+      </c>
       <c r="D230" s="89"/>
       <c r="E230" s="97"/>
       <c r="F230" s="98" t="s">

--- a/qa/01.测试用例/副本系统/对局设计/对局设计测试用例.xlsx
+++ b/qa/01.测试用例/副本系统/对局设计/对局设计测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9350" windowHeight="3240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9350" windowHeight="3240" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="2916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="2921">
   <si>
     <t>更新日期</t>
   </si>
@@ -11549,47 +11549,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>技能类型为0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能类型为1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能类型为2</t>
-  </si>
-  <si>
-    <t>技能类型为3</t>
-  </si>
-  <si>
-    <t>技能类型为4</t>
-  </si>
-  <si>
-    <t>技能类型为5</t>
-  </si>
-  <si>
-    <t>技能类型为6</t>
-  </si>
-  <si>
-    <t>技能类型为7</t>
-  </si>
-  <si>
-    <t>技能类型为8</t>
-  </si>
-  <si>
-    <t>技能类型为9</t>
-  </si>
-  <si>
-    <t>技能类型为10</t>
-  </si>
-  <si>
-    <t>技能类型为11</t>
-  </si>
-  <si>
-    <t>技能类型为12</t>
-  </si>
-  <si>
     <t>显示技能名称</t>
   </si>
   <si>
@@ -11955,6 +11914,78 @@
     <t xml:space="preserve">5778
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型为0，物理技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型为1，法术技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型为2，治疗技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型为3，防御技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型为4，被动技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型为5，增益buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型为6，减益buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型为7，偷懒技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型为8，物理大招</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型为9，法术大招</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型为10，大招准备buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型为11，dot技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型为12，hot技能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例走读及策划文档变更，回归弱点状态用例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai中未调用弱点状态切换</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai中调用了弱点状态切换</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一个状态的提示信息不会消失，下一个状态的提示信息显现</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12525,7 +12556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13070,6 +13101,12 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -13082,10 +13119,10 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -17239,13 +17276,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>695030</xdr:colOff>
-      <xdr:row>595</xdr:row>
+      <xdr:row>597</xdr:row>
       <xdr:rowOff>203572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>514663</xdr:colOff>
-      <xdr:row>604</xdr:row>
+      <xdr:row>606</xdr:row>
       <xdr:rowOff>208242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17541,7 +17578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
@@ -18083,22 +18120,32 @@
         <v>42332</v>
       </c>
       <c r="C56" s="162" t="s">
-        <v>2913</v>
-      </c>
-      <c r="D56" s="197" t="s">
-        <v>2914</v>
-      </c>
-      <c r="E56" s="196"/>
+        <v>2900</v>
+      </c>
+      <c r="D56" s="193" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E56" s="192"/>
       <c r="F56" s="80" t="s">
-        <v>2915</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="55"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="80"/>
+      <c r="B57" s="55">
+        <v>42333</v>
+      </c>
+      <c r="C57" s="71" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="80">
+        <v>5828</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="55"/>
@@ -20196,9 +20243,9 @@
       <c r="H1" s="61"/>
       <c r="I1" s="61"/>
       <c r="J1" s="61"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
     </row>
     <row r="2" spans="1:13" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
@@ -22964,7 +23011,7 @@
         <v>1042</v>
       </c>
       <c r="H176" s="60" t="s">
-        <v>2862</v>
+        <v>2849</v>
       </c>
       <c r="I176" s="29"/>
       <c r="J176" s="29"/>
@@ -22982,7 +23029,7 @@
         <v>2772</v>
       </c>
       <c r="H177" s="60" t="s">
-        <v>2861</v>
+        <v>2848</v>
       </c>
       <c r="I177" s="29"/>
       <c r="J177" s="29"/>
@@ -23018,7 +23065,7 @@
         <v>1043</v>
       </c>
       <c r="H179" s="60" t="s">
-        <v>2863</v>
+        <v>2850</v>
       </c>
       <c r="I179" s="29"/>
       <c r="J179" s="29"/>
@@ -23099,7 +23146,7 @@
         <v>2772</v>
       </c>
       <c r="H184" s="60" t="s">
-        <v>2875</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.45">
@@ -23159,7 +23206,7 @@
         <v>2772</v>
       </c>
       <c r="H188" s="60" t="s">
-        <v>2861</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.45">
@@ -23189,7 +23236,7 @@
         <v>2777</v>
       </c>
       <c r="H190" s="60" t="s">
-        <v>2863</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.45">
@@ -23262,7 +23309,7 @@
         <v>2772</v>
       </c>
       <c r="H195" s="60" t="s">
-        <v>2864</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.45">
@@ -23783,7 +23830,7 @@
         <v>2792</v>
       </c>
       <c r="H229" s="90" t="s">
-        <v>2860</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.45">
@@ -24126,12 +24173,12 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="33"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
     </row>
     <row r="2" spans="1:13" s="16" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -28253,10 +28300,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M621"/>
+  <dimension ref="A1:M626"/>
   <sheetViews>
-    <sheetView topLeftCell="A601" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H615" sqref="H615"/>
+    <sheetView tabSelected="1" topLeftCell="A391" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E411" sqref="E411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -28282,14 +28329,14 @@
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
-      <c r="H1" s="195">
+      <c r="H1" s="197">
         <v>42159</v>
       </c>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
     </row>
     <row r="2" spans="1:13" s="86" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
@@ -30718,10 +30765,10 @@
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E139" s="66"/>
-      <c r="F139" s="185" t="s">
+      <c r="F139" s="92" t="s">
         <v>2755</v>
       </c>
-      <c r="G139" s="184" t="s">
+      <c r="G139" s="66" t="s">
         <v>2756</v>
       </c>
       <c r="H139" s="90" t="s">
@@ -34203,19 +34250,19 @@
       <c r="L343" s="102"/>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B344" s="182" t="s">
+      <c r="B344" s="68" t="s">
         <v>910</v>
       </c>
-      <c r="C344" s="183" t="s">
+      <c r="C344" s="27" t="s">
         <v>2687</v>
       </c>
-      <c r="D344" s="182">
+      <c r="D344" s="68">
         <v>1</v>
       </c>
-      <c r="E344" s="184" t="s">
+      <c r="E344" s="66" t="s">
         <v>934</v>
       </c>
-      <c r="F344" s="185" t="s">
+      <c r="F344" s="92" t="s">
         <v>2688</v>
       </c>
       <c r="G344" s="66" t="s">
@@ -34226,11 +34273,11 @@
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B345" s="182"/>
-      <c r="C345" s="182"/>
-      <c r="D345" s="182"/>
-      <c r="E345" s="184"/>
-      <c r="F345" s="185" t="s">
+      <c r="B345" s="68"/>
+      <c r="C345" s="68"/>
+      <c r="D345" s="68"/>
+      <c r="E345" s="66"/>
+      <c r="F345" s="92" t="s">
         <v>2689</v>
       </c>
       <c r="G345" s="66" t="s">
@@ -34241,11 +34288,11 @@
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B346" s="182"/>
-      <c r="C346" s="182"/>
-      <c r="D346" s="182"/>
-      <c r="E346" s="184"/>
-      <c r="F346" s="185" t="s">
+      <c r="B346" s="68"/>
+      <c r="C346" s="68"/>
+      <c r="D346" s="68"/>
+      <c r="E346" s="66"/>
+      <c r="F346" s="92" t="s">
         <v>2690</v>
       </c>
       <c r="G346" s="66" t="s">
@@ -34256,11 +34303,11 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B347" s="182"/>
-      <c r="C347" s="182"/>
-      <c r="D347" s="182"/>
-      <c r="E347" s="184"/>
-      <c r="F347" s="185" t="s">
+      <c r="B347" s="68"/>
+      <c r="C347" s="68"/>
+      <c r="D347" s="68"/>
+      <c r="E347" s="66"/>
+      <c r="F347" s="92" t="s">
         <v>2691</v>
       </c>
       <c r="G347" s="66" t="s">
@@ -34271,15 +34318,15 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B348" s="182"/>
-      <c r="C348" s="182"/>
-      <c r="D348" s="182">
+      <c r="B348" s="68"/>
+      <c r="C348" s="68"/>
+      <c r="D348" s="68">
         <v>2</v>
       </c>
-      <c r="E348" s="184" t="s">
+      <c r="E348" s="66" t="s">
         <v>2692</v>
       </c>
-      <c r="F348" s="184" t="s">
+      <c r="F348" s="66" t="s">
         <v>936</v>
       </c>
       <c r="G348" s="66" t="s">
@@ -34290,11 +34337,11 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B349" s="182"/>
-      <c r="C349" s="182"/>
-      <c r="D349" s="182"/>
-      <c r="E349" s="184"/>
-      <c r="F349" s="185" t="s">
+      <c r="B349" s="68"/>
+      <c r="C349" s="68"/>
+      <c r="D349" s="68"/>
+      <c r="E349" s="66"/>
+      <c r="F349" s="92" t="s">
         <v>944</v>
       </c>
       <c r="G349" s="66" t="s">
@@ -34305,11 +34352,11 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B350" s="182"/>
-      <c r="C350" s="182"/>
-      <c r="D350" s="182"/>
-      <c r="E350" s="184"/>
-      <c r="F350" s="185" t="s">
+      <c r="B350" s="68"/>
+      <c r="C350" s="68"/>
+      <c r="D350" s="68"/>
+      <c r="E350" s="66"/>
+      <c r="F350" s="92" t="s">
         <v>945</v>
       </c>
       <c r="G350" s="66" t="s">
@@ -34320,11 +34367,11 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B351" s="182"/>
-      <c r="C351" s="182"/>
-      <c r="D351" s="182"/>
-      <c r="E351" s="184"/>
-      <c r="F351" s="185" t="s">
+      <c r="B351" s="68"/>
+      <c r="C351" s="68"/>
+      <c r="D351" s="68"/>
+      <c r="E351" s="66"/>
+      <c r="F351" s="92" t="s">
         <v>946</v>
       </c>
       <c r="G351" s="66" t="s">
@@ -34335,15 +34382,15 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B352" s="182"/>
-      <c r="C352" s="182"/>
-      <c r="D352" s="182">
+      <c r="B352" s="68"/>
+      <c r="C352" s="68"/>
+      <c r="D352" s="68">
         <v>3</v>
       </c>
-      <c r="E352" s="184" t="s">
+      <c r="E352" s="66" t="s">
         <v>938</v>
       </c>
-      <c r="F352" s="185" t="s">
+      <c r="F352" s="92" t="s">
         <v>939</v>
       </c>
       <c r="G352" s="66" t="s">
@@ -34354,11 +34401,11 @@
       </c>
     </row>
     <row r="353" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B353" s="182"/>
-      <c r="C353" s="182"/>
-      <c r="D353" s="182"/>
-      <c r="E353" s="184"/>
-      <c r="F353" s="185" t="s">
+      <c r="B353" s="68"/>
+      <c r="C353" s="68"/>
+      <c r="D353" s="68"/>
+      <c r="E353" s="66"/>
+      <c r="F353" s="92" t="s">
         <v>940</v>
       </c>
       <c r="G353" s="66" t="s">
@@ -34369,15 +34416,15 @@
       </c>
     </row>
     <row r="354" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B354" s="182"/>
-      <c r="C354" s="182"/>
-      <c r="D354" s="182">
+      <c r="B354" s="68"/>
+      <c r="C354" s="68"/>
+      <c r="D354" s="68">
         <v>4</v>
       </c>
-      <c r="E354" s="184" t="s">
+      <c r="E354" s="66" t="s">
         <v>941</v>
       </c>
-      <c r="F354" s="185" t="s">
+      <c r="F354" s="92" t="s">
         <v>942</v>
       </c>
       <c r="G354" s="93" t="s">
@@ -34388,11 +34435,11 @@
       </c>
     </row>
     <row r="355" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B355" s="182"/>
-      <c r="C355" s="182"/>
-      <c r="D355" s="182"/>
-      <c r="E355" s="184"/>
-      <c r="F355" s="185" t="s">
+      <c r="B355" s="68"/>
+      <c r="C355" s="68"/>
+      <c r="D355" s="68"/>
+      <c r="E355" s="66"/>
+      <c r="F355" s="92" t="s">
         <v>943</v>
       </c>
       <c r="G355" s="93"/>
@@ -34401,38 +34448,38 @@
       </c>
     </row>
     <row r="356" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B356" s="182"/>
-      <c r="C356" s="182"/>
-      <c r="D356" s="182"/>
-      <c r="E356" s="184"/>
-      <c r="F356" s="115"/>
+      <c r="B356" s="68"/>
+      <c r="C356" s="68"/>
+      <c r="D356" s="68"/>
+      <c r="E356" s="66"/>
+      <c r="F356" s="70"/>
       <c r="G356" s="93"/>
       <c r="H356" s="90" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="357" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B357" s="182"/>
-      <c r="C357" s="182"/>
-      <c r="D357" s="182"/>
-      <c r="E357" s="184"/>
-      <c r="F357" s="185"/>
+      <c r="B357" s="68"/>
+      <c r="C357" s="68"/>
+      <c r="D357" s="68"/>
+      <c r="E357" s="66"/>
+      <c r="F357" s="92"/>
       <c r="H357" s="90"/>
     </row>
     <row r="358" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B358" s="182" t="s">
+      <c r="B358" s="68" t="s">
         <v>933</v>
       </c>
-      <c r="C358" s="182" t="s">
+      <c r="C358" s="68" t="s">
         <v>949</v>
       </c>
-      <c r="D358" s="182">
+      <c r="D358" s="68">
         <v>1</v>
       </c>
-      <c r="E358" s="184" t="s">
+      <c r="E358" s="66" t="s">
         <v>990</v>
       </c>
-      <c r="F358" s="185" t="s">
+      <c r="F358" s="92" t="s">
         <v>950</v>
       </c>
       <c r="G358" s="66" t="s">
@@ -34443,11 +34490,11 @@
       </c>
     </row>
     <row r="359" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B359" s="182"/>
-      <c r="C359" s="182"/>
-      <c r="D359" s="182"/>
-      <c r="E359" s="184"/>
-      <c r="F359" s="185" t="s">
+      <c r="B359" s="68"/>
+      <c r="C359" s="68"/>
+      <c r="D359" s="68"/>
+      <c r="E359" s="66"/>
+      <c r="F359" s="92" t="s">
         <v>951</v>
       </c>
       <c r="G359" s="66" t="s">
@@ -34458,11 +34505,11 @@
       </c>
     </row>
     <row r="360" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B360" s="182"/>
-      <c r="C360" s="182"/>
-      <c r="D360" s="182"/>
-      <c r="E360" s="184"/>
-      <c r="F360" s="185" t="s">
+      <c r="B360" s="68"/>
+      <c r="C360" s="68"/>
+      <c r="D360" s="68"/>
+      <c r="E360" s="66"/>
+      <c r="F360" s="92" t="s">
         <v>952</v>
       </c>
       <c r="G360" s="66" t="s">
@@ -34473,11 +34520,11 @@
       </c>
     </row>
     <row r="361" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B361" s="182"/>
-      <c r="C361" s="182"/>
-      <c r="D361" s="182"/>
-      <c r="E361" s="184"/>
-      <c r="F361" s="185" t="s">
+      <c r="B361" s="68"/>
+      <c r="C361" s="68"/>
+      <c r="D361" s="68"/>
+      <c r="E361" s="66"/>
+      <c r="F361" s="92" t="s">
         <v>953</v>
       </c>
       <c r="G361" s="66" t="s">
@@ -34488,11 +34535,11 @@
       </c>
     </row>
     <row r="362" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B362" s="182"/>
-      <c r="C362" s="182"/>
-      <c r="D362" s="182"/>
-      <c r="E362" s="184"/>
-      <c r="F362" s="185" t="s">
+      <c r="B362" s="68"/>
+      <c r="C362" s="68"/>
+      <c r="D362" s="68"/>
+      <c r="E362" s="66"/>
+      <c r="F362" s="92" t="s">
         <v>954</v>
       </c>
       <c r="G362" s="66" t="s">
@@ -34503,11 +34550,11 @@
       </c>
     </row>
     <row r="363" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B363" s="182"/>
-      <c r="C363" s="182"/>
-      <c r="D363" s="182"/>
-      <c r="E363" s="184"/>
-      <c r="F363" s="185" t="s">
+      <c r="B363" s="68"/>
+      <c r="C363" s="68"/>
+      <c r="D363" s="68"/>
+      <c r="E363" s="66"/>
+      <c r="F363" s="92" t="s">
         <v>955</v>
       </c>
       <c r="G363" s="66" t="s">
@@ -34518,15 +34565,15 @@
       </c>
     </row>
     <row r="364" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B364" s="182"/>
-      <c r="C364" s="182"/>
-      <c r="D364" s="182">
+      <c r="B364" s="68"/>
+      <c r="C364" s="68"/>
+      <c r="D364" s="68">
         <v>2</v>
       </c>
-      <c r="E364" s="184" t="s">
+      <c r="E364" s="66" t="s">
         <v>991</v>
       </c>
-      <c r="F364" s="185" t="s">
+      <c r="F364" s="92" t="s">
         <v>956</v>
       </c>
       <c r="G364" s="66" t="s">
@@ -34537,11 +34584,11 @@
       </c>
     </row>
     <row r="365" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B365" s="182"/>
-      <c r="C365" s="182"/>
-      <c r="D365" s="182"/>
-      <c r="E365" s="184"/>
-      <c r="F365" s="185" t="s">
+      <c r="B365" s="68"/>
+      <c r="C365" s="68"/>
+      <c r="D365" s="68"/>
+      <c r="E365" s="66"/>
+      <c r="F365" s="92" t="s">
         <v>957</v>
       </c>
       <c r="G365" s="66" t="s">
@@ -34552,11 +34599,11 @@
       </c>
     </row>
     <row r="366" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B366" s="182"/>
-      <c r="C366" s="182"/>
-      <c r="D366" s="182"/>
-      <c r="E366" s="184"/>
-      <c r="F366" s="185" t="s">
+      <c r="B366" s="68"/>
+      <c r="C366" s="68"/>
+      <c r="D366" s="68"/>
+      <c r="E366" s="66"/>
+      <c r="F366" s="92" t="s">
         <v>958</v>
       </c>
       <c r="G366" s="66" t="s">
@@ -34567,11 +34614,11 @@
       </c>
     </row>
     <row r="367" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B367" s="182"/>
-      <c r="C367" s="182"/>
-      <c r="D367" s="182"/>
-      <c r="E367" s="184"/>
-      <c r="F367" s="185" t="s">
+      <c r="B367" s="68"/>
+      <c r="C367" s="68"/>
+      <c r="D367" s="68"/>
+      <c r="E367" s="66"/>
+      <c r="F367" s="92" t="s">
         <v>959</v>
       </c>
       <c r="G367" s="66" t="s">
@@ -34582,11 +34629,11 @@
       </c>
     </row>
     <row r="368" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B368" s="182"/>
-      <c r="C368" s="182"/>
-      <c r="D368" s="182"/>
-      <c r="E368" s="184"/>
-      <c r="F368" s="185" t="s">
+      <c r="B368" s="68"/>
+      <c r="C368" s="68"/>
+      <c r="D368" s="68"/>
+      <c r="E368" s="66"/>
+      <c r="F368" s="92" t="s">
         <v>960</v>
       </c>
       <c r="G368" s="66" t="s">
@@ -34597,11 +34644,11 @@
       </c>
     </row>
     <row r="369" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B369" s="182"/>
-      <c r="C369" s="182"/>
-      <c r="D369" s="182"/>
-      <c r="E369" s="184"/>
-      <c r="F369" s="185" t="s">
+      <c r="B369" s="68"/>
+      <c r="C369" s="68"/>
+      <c r="D369" s="68"/>
+      <c r="E369" s="66"/>
+      <c r="F369" s="92" t="s">
         <v>961</v>
       </c>
       <c r="G369" s="66" t="s">
@@ -34612,15 +34659,15 @@
       </c>
     </row>
     <row r="370" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B370" s="182"/>
-      <c r="C370" s="182"/>
-      <c r="D370" s="182">
+      <c r="B370" s="68"/>
+      <c r="C370" s="68"/>
+      <c r="D370" s="68">
         <v>3</v>
       </c>
-      <c r="E370" s="184" t="s">
+      <c r="E370" s="66" t="s">
         <v>1016</v>
       </c>
-      <c r="F370" s="185" t="s">
+      <c r="F370" s="92" t="s">
         <v>992</v>
       </c>
       <c r="G370" s="66" t="s">
@@ -34631,11 +34678,11 @@
       </c>
     </row>
     <row r="371" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B371" s="182"/>
-      <c r="C371" s="182"/>
-      <c r="D371" s="182"/>
-      <c r="E371" s="184"/>
-      <c r="F371" s="185" t="s">
+      <c r="B371" s="68"/>
+      <c r="C371" s="68"/>
+      <c r="D371" s="68"/>
+      <c r="E371" s="66"/>
+      <c r="F371" s="92" t="s">
         <v>994</v>
       </c>
       <c r="G371" s="66" t="s">
@@ -34646,11 +34693,11 @@
       </c>
     </row>
     <row r="372" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B372" s="182"/>
-      <c r="C372" s="182"/>
-      <c r="D372" s="182"/>
-      <c r="E372" s="184"/>
-      <c r="F372" s="185" t="s">
+      <c r="B372" s="68"/>
+      <c r="C372" s="68"/>
+      <c r="D372" s="68"/>
+      <c r="E372" s="66"/>
+      <c r="F372" s="92" t="s">
         <v>996</v>
       </c>
       <c r="G372" s="66" t="s">
@@ -34661,11 +34708,11 @@
       </c>
     </row>
     <row r="373" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B373" s="182"/>
-      <c r="C373" s="182"/>
-      <c r="D373" s="182"/>
-      <c r="E373" s="184"/>
-      <c r="F373" s="185" t="s">
+      <c r="B373" s="68"/>
+      <c r="C373" s="68"/>
+      <c r="D373" s="68"/>
+      <c r="E373" s="66"/>
+      <c r="F373" s="92" t="s">
         <v>998</v>
       </c>
       <c r="G373" s="66" t="s">
@@ -34676,11 +34723,11 @@
       </c>
     </row>
     <row r="374" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B374" s="182"/>
-      <c r="C374" s="182"/>
-      <c r="D374" s="182"/>
-      <c r="E374" s="184"/>
-      <c r="F374" s="185" t="s">
+      <c r="B374" s="68"/>
+      <c r="C374" s="68"/>
+      <c r="D374" s="68"/>
+      <c r="E374" s="66"/>
+      <c r="F374" s="92" t="s">
         <v>1000</v>
       </c>
       <c r="G374" s="66" t="s">
@@ -34691,11 +34738,11 @@
       </c>
     </row>
     <row r="375" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B375" s="182"/>
-      <c r="C375" s="182"/>
-      <c r="D375" s="182"/>
-      <c r="E375" s="184"/>
-      <c r="F375" s="185" t="s">
+      <c r="B375" s="68"/>
+      <c r="C375" s="68"/>
+      <c r="D375" s="68"/>
+      <c r="E375" s="66"/>
+      <c r="F375" s="92" t="s">
         <v>1002</v>
       </c>
       <c r="G375" s="66" t="s">
@@ -34706,15 +34753,15 @@
       </c>
     </row>
     <row r="376" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B376" s="182"/>
-      <c r="C376" s="182"/>
-      <c r="D376" s="182">
+      <c r="B376" s="68"/>
+      <c r="C376" s="68"/>
+      <c r="D376" s="68">
         <v>4</v>
       </c>
-      <c r="E376" s="184" t="s">
+      <c r="E376" s="66" t="s">
         <v>1017</v>
       </c>
-      <c r="F376" s="185" t="s">
+      <c r="F376" s="92" t="s">
         <v>1004</v>
       </c>
       <c r="G376" s="66" t="s">
@@ -34725,11 +34772,11 @@
       </c>
     </row>
     <row r="377" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B377" s="182"/>
-      <c r="C377" s="182"/>
-      <c r="D377" s="182"/>
-      <c r="E377" s="184"/>
-      <c r="F377" s="185" t="s">
+      <c r="B377" s="68"/>
+      <c r="C377" s="68"/>
+      <c r="D377" s="68"/>
+      <c r="E377" s="66"/>
+      <c r="F377" s="92" t="s">
         <v>1006</v>
       </c>
       <c r="G377" s="66" t="s">
@@ -34740,11 +34787,11 @@
       </c>
     </row>
     <row r="378" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B378" s="182"/>
-      <c r="C378" s="182"/>
-      <c r="D378" s="182"/>
-      <c r="E378" s="184"/>
-      <c r="F378" s="185" t="s">
+      <c r="B378" s="68"/>
+      <c r="C378" s="68"/>
+      <c r="D378" s="68"/>
+      <c r="E378" s="66"/>
+      <c r="F378" s="92" t="s">
         <v>1008</v>
       </c>
       <c r="G378" s="66" t="s">
@@ -34755,11 +34802,11 @@
       </c>
     </row>
     <row r="379" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B379" s="182"/>
-      <c r="C379" s="182"/>
-      <c r="D379" s="182"/>
-      <c r="E379" s="184"/>
-      <c r="F379" s="185" t="s">
+      <c r="B379" s="68"/>
+      <c r="C379" s="68"/>
+      <c r="D379" s="68"/>
+      <c r="E379" s="66"/>
+      <c r="F379" s="92" t="s">
         <v>1010</v>
       </c>
       <c r="G379" s="66" t="s">
@@ -34770,11 +34817,11 @@
       </c>
     </row>
     <row r="380" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B380" s="182"/>
-      <c r="C380" s="182"/>
-      <c r="D380" s="182"/>
-      <c r="E380" s="184"/>
-      <c r="F380" s="185" t="s">
+      <c r="B380" s="68"/>
+      <c r="C380" s="68"/>
+      <c r="D380" s="68"/>
+      <c r="E380" s="66"/>
+      <c r="F380" s="92" t="s">
         <v>1012</v>
       </c>
       <c r="G380" s="66" t="s">
@@ -34785,11 +34832,11 @@
       </c>
     </row>
     <row r="381" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B381" s="182"/>
-      <c r="C381" s="182"/>
-      <c r="D381" s="182"/>
-      <c r="E381" s="184"/>
-      <c r="F381" s="185" t="s">
+      <c r="B381" s="68"/>
+      <c r="C381" s="68"/>
+      <c r="D381" s="68"/>
+      <c r="E381" s="66"/>
+      <c r="F381" s="92" t="s">
         <v>1014</v>
       </c>
       <c r="G381" s="66" t="s">
@@ -34800,15 +34847,15 @@
       </c>
     </row>
     <row r="382" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B382" s="182"/>
-      <c r="C382" s="182"/>
-      <c r="D382" s="182">
+      <c r="B382" s="68"/>
+      <c r="C382" s="68"/>
+      <c r="D382" s="68">
         <v>5</v>
       </c>
-      <c r="E382" s="184" t="s">
+      <c r="E382" s="66" t="s">
         <v>1018</v>
       </c>
-      <c r="F382" s="185" t="s">
+      <c r="F382" s="92" t="s">
         <v>962</v>
       </c>
       <c r="G382" s="66" t="s">
@@ -34819,11 +34866,11 @@
       </c>
     </row>
     <row r="383" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B383" s="182"/>
-      <c r="C383" s="182"/>
-      <c r="D383" s="182"/>
-      <c r="E383" s="184"/>
-      <c r="F383" s="185" t="s">
+      <c r="B383" s="68"/>
+      <c r="C383" s="68"/>
+      <c r="D383" s="68"/>
+      <c r="E383" s="66"/>
+      <c r="F383" s="92" t="s">
         <v>963</v>
       </c>
       <c r="G383" s="66" t="s">
@@ -34834,11 +34881,11 @@
       </c>
     </row>
     <row r="384" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B384" s="182"/>
-      <c r="C384" s="182"/>
-      <c r="D384" s="182"/>
-      <c r="E384" s="184"/>
-      <c r="F384" s="185" t="s">
+      <c r="B384" s="68"/>
+      <c r="C384" s="68"/>
+      <c r="D384" s="68"/>
+      <c r="E384" s="66"/>
+      <c r="F384" s="92" t="s">
         <v>964</v>
       </c>
       <c r="G384" s="66" t="s">
@@ -34849,11 +34896,11 @@
       </c>
     </row>
     <row r="385" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B385" s="182"/>
-      <c r="C385" s="182"/>
-      <c r="D385" s="182"/>
-      <c r="E385" s="184"/>
-      <c r="F385" s="185" t="s">
+      <c r="B385" s="68"/>
+      <c r="C385" s="68"/>
+      <c r="D385" s="68"/>
+      <c r="E385" s="66"/>
+      <c r="F385" s="92" t="s">
         <v>965</v>
       </c>
       <c r="G385" s="66" t="s">
@@ -34864,11 +34911,11 @@
       </c>
     </row>
     <row r="386" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B386" s="182"/>
-      <c r="C386" s="182"/>
-      <c r="D386" s="182"/>
-      <c r="E386" s="184"/>
-      <c r="F386" s="185" t="s">
+      <c r="B386" s="68"/>
+      <c r="C386" s="68"/>
+      <c r="D386" s="68"/>
+      <c r="E386" s="66"/>
+      <c r="F386" s="92" t="s">
         <v>966</v>
       </c>
       <c r="G386" s="66" t="s">
@@ -34879,11 +34926,11 @@
       </c>
     </row>
     <row r="387" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B387" s="182"/>
-      <c r="C387" s="182"/>
-      <c r="D387" s="182"/>
-      <c r="E387" s="184"/>
-      <c r="F387" s="185" t="s">
+      <c r="B387" s="68"/>
+      <c r="C387" s="68"/>
+      <c r="D387" s="68"/>
+      <c r="E387" s="66"/>
+      <c r="F387" s="92" t="s">
         <v>967</v>
       </c>
       <c r="G387" s="66" t="s">
@@ -34894,15 +34941,15 @@
       </c>
     </row>
     <row r="388" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B388" s="182"/>
-      <c r="C388" s="182"/>
-      <c r="D388" s="182">
+      <c r="B388" s="68"/>
+      <c r="C388" s="68"/>
+      <c r="D388" s="68">
         <v>6</v>
       </c>
-      <c r="E388" s="184" t="s">
+      <c r="E388" s="66" t="s">
         <v>1019</v>
       </c>
-      <c r="F388" s="185" t="s">
+      <c r="F388" s="92" t="s">
         <v>968</v>
       </c>
       <c r="G388" s="66" t="s">
@@ -34913,11 +34960,11 @@
       </c>
     </row>
     <row r="389" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B389" s="182"/>
-      <c r="C389" s="182"/>
-      <c r="D389" s="182"/>
-      <c r="E389" s="184"/>
-      <c r="F389" s="185" t="s">
+      <c r="B389" s="68"/>
+      <c r="C389" s="68"/>
+      <c r="D389" s="68"/>
+      <c r="E389" s="66"/>
+      <c r="F389" s="92" t="s">
         <v>969</v>
       </c>
       <c r="G389" s="66" t="s">
@@ -34928,26 +34975,26 @@
       </c>
     </row>
     <row r="390" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B390" s="182"/>
-      <c r="C390" s="182"/>
-      <c r="D390" s="182"/>
-      <c r="E390" s="184"/>
-      <c r="F390" s="185"/>
+      <c r="B390" s="68"/>
+      <c r="C390" s="68"/>
+      <c r="D390" s="68"/>
+      <c r="E390" s="66"/>
+      <c r="F390" s="92"/>
       <c r="H390" s="90"/>
     </row>
     <row r="391" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B391" s="182"/>
-      <c r="C391" s="115" t="s">
+      <c r="B391" s="68"/>
+      <c r="C391" s="70" t="s">
         <v>2694</v>
       </c>
-      <c r="D391" s="182">
+      <c r="D391" s="68">
         <v>1</v>
       </c>
-      <c r="E391" s="184" t="s">
+      <c r="E391" s="66" t="s">
         <v>2695</v>
       </c>
-      <c r="F391" s="185" t="s">
-        <v>2852</v>
+      <c r="F391" s="92" t="s">
+        <v>2839</v>
       </c>
       <c r="G391" s="41" t="s">
         <v>2699</v>
@@ -34957,11 +35004,11 @@
       </c>
     </row>
     <row r="392" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B392" s="182"/>
-      <c r="C392" s="115"/>
-      <c r="D392" s="115"/>
-      <c r="E392" s="115"/>
-      <c r="F392" s="185" t="s">
+      <c r="B392" s="68"/>
+      <c r="C392" s="70"/>
+      <c r="D392" s="70"/>
+      <c r="E392" s="70"/>
+      <c r="F392" s="92" t="s">
         <v>2696</v>
       </c>
       <c r="G392" s="41" t="s">
@@ -34972,11 +35019,11 @@
       </c>
     </row>
     <row r="393" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B393" s="182"/>
-      <c r="C393" s="115"/>
-      <c r="D393" s="182"/>
-      <c r="E393" s="115"/>
-      <c r="F393" s="185" t="s">
+      <c r="B393" s="68"/>
+      <c r="C393" s="70"/>
+      <c r="D393" s="68"/>
+      <c r="E393" s="70"/>
+      <c r="F393" s="92" t="s">
         <v>2697</v>
       </c>
       <c r="G393" s="41" t="s">
@@ -34987,11 +35034,11 @@
       </c>
     </row>
     <row r="394" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B394" s="182"/>
-      <c r="C394" s="115"/>
-      <c r="D394" s="182"/>
-      <c r="E394" s="115"/>
-      <c r="F394" s="185" t="s">
+      <c r="B394" s="68"/>
+      <c r="C394" s="70"/>
+      <c r="D394" s="68"/>
+      <c r="E394" s="70"/>
+      <c r="F394" s="92" t="s">
         <v>2698</v>
       </c>
       <c r="G394" s="41" t="s">
@@ -35002,60 +35049,60 @@
       </c>
     </row>
     <row r="395" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B395" s="182"/>
-      <c r="C395" s="115"/>
-      <c r="D395" s="182">
+      <c r="B395" s="68"/>
+      <c r="C395" s="70"/>
+      <c r="D395" s="68">
         <v>2</v>
       </c>
-      <c r="E395" s="184" t="s">
+      <c r="E395" s="66" t="s">
         <v>2692</v>
       </c>
-      <c r="F395" s="184" t="s">
+      <c r="F395" s="66" t="s">
         <v>936</v>
       </c>
       <c r="G395" s="66" t="s">
         <v>937</v>
       </c>
       <c r="H395" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="396" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B396" s="182"/>
-      <c r="C396" s="115"/>
-      <c r="D396" s="182"/>
-      <c r="E396" s="184"/>
-      <c r="F396" s="185" t="s">
+      <c r="B396" s="68"/>
+      <c r="C396" s="70"/>
+      <c r="D396" s="68"/>
+      <c r="E396" s="66"/>
+      <c r="F396" s="92" t="s">
         <v>944</v>
       </c>
       <c r="G396" s="66" t="s">
         <v>2700</v>
       </c>
       <c r="H396" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="397" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B397" s="182"/>
-      <c r="C397" s="115"/>
-      <c r="D397" s="182"/>
-      <c r="E397" s="184"/>
-      <c r="F397" s="185" t="s">
+      <c r="B397" s="68"/>
+      <c r="C397" s="70"/>
+      <c r="D397" s="68"/>
+      <c r="E397" s="66"/>
+      <c r="F397" s="92" t="s">
         <v>945</v>
       </c>
       <c r="G397" s="66" t="s">
         <v>2701</v>
       </c>
       <c r="H397" s="90" t="s">
-        <v>2851</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="398" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B398" s="182"/>
-      <c r="C398" s="115"/>
-      <c r="D398" s="182"/>
-      <c r="E398" s="184"/>
-      <c r="F398" s="185" t="s">
+      <c r="B398" s="68"/>
+      <c r="C398" s="70"/>
+      <c r="D398" s="68"/>
+      <c r="E398" s="66"/>
+      <c r="F398" s="92" t="s">
         <v>946</v>
       </c>
       <c r="G398" s="66" t="s">
@@ -35064,551 +35111,551 @@
       <c r="H398" s="90"/>
     </row>
     <row r="399" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B399" s="182"/>
-      <c r="C399" s="115"/>
-      <c r="D399" s="182">
+      <c r="B399" s="68"/>
+      <c r="C399" s="70"/>
+      <c r="D399" s="68">
         <v>3</v>
       </c>
-      <c r="E399" s="184" t="s">
+      <c r="E399" s="66" t="s">
         <v>947</v>
       </c>
-      <c r="F399" s="115" t="s">
+      <c r="F399" s="70" t="s">
         <v>2703</v>
       </c>
       <c r="G399" s="141" t="s">
-        <v>2874</v>
+        <v>2861</v>
       </c>
       <c r="H399" s="90" t="s">
-        <v>2848</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="400" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B400" s="182"/>
-      <c r="C400" s="115"/>
-      <c r="D400" s="182"/>
-      <c r="E400" s="115"/>
-      <c r="F400" s="115" t="s">
+      <c r="B400" s="68"/>
+      <c r="C400" s="70"/>
+      <c r="D400" s="68"/>
+      <c r="E400" s="70"/>
+      <c r="F400" s="70" t="s">
         <v>2704</v>
       </c>
       <c r="G400" s="141"/>
       <c r="H400" s="90" t="s">
-        <v>2849</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="401" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B401" s="182"/>
-      <c r="C401" s="115"/>
-      <c r="D401" s="182"/>
-      <c r="E401" s="115"/>
-      <c r="F401" s="185" t="s">
+      <c r="B401" s="68"/>
+      <c r="C401" s="70"/>
+      <c r="D401" s="68"/>
+      <c r="E401" s="70"/>
+      <c r="F401" s="92" t="s">
         <v>2705</v>
       </c>
       <c r="G401" s="141"/>
       <c r="H401" s="90" t="s">
-        <v>2849</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="402" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B402" s="182"/>
-      <c r="C402" s="182"/>
-      <c r="D402" s="182"/>
-      <c r="E402" s="184"/>
-      <c r="F402" s="185" t="s">
+      <c r="B402" s="68"/>
+      <c r="C402" s="68"/>
+      <c r="D402" s="68"/>
+      <c r="E402" s="66"/>
+      <c r="F402" s="92" t="s">
         <v>2712</v>
       </c>
       <c r="G402" s="93"/>
       <c r="H402" s="90" t="s">
-        <v>2850</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="403" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B403" s="182"/>
-      <c r="C403" s="182"/>
-      <c r="D403" s="182"/>
-      <c r="E403" s="184"/>
-      <c r="F403" s="115" t="s">
+      <c r="B403" s="68"/>
+      <c r="C403" s="68"/>
+      <c r="D403" s="68"/>
+      <c r="E403" s="66"/>
+      <c r="F403" s="70" t="s">
         <v>2706</v>
       </c>
       <c r="G403" s="93"/>
       <c r="H403" s="90" t="s">
-        <v>2873</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="404" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B404" s="182"/>
-      <c r="C404" s="182"/>
-      <c r="D404" s="182"/>
-      <c r="E404" s="184"/>
-      <c r="F404" s="185" t="s">
+      <c r="B404" s="68"/>
+      <c r="C404" s="68"/>
+      <c r="D404" s="68"/>
+      <c r="E404" s="66"/>
+      <c r="F404" s="92" t="s">
         <v>2707</v>
       </c>
       <c r="G404" s="93"/>
       <c r="H404" s="90" t="s">
-        <v>2871</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="405" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B405" s="182"/>
-      <c r="C405" s="182"/>
-      <c r="D405" s="182"/>
-      <c r="E405" s="184"/>
-      <c r="F405" s="185" t="s">
+      <c r="B405" s="68"/>
+      <c r="C405" s="68"/>
+      <c r="D405" s="68"/>
+      <c r="E405" s="66"/>
+      <c r="F405" s="92" t="s">
         <v>2753</v>
       </c>
       <c r="G405" s="93"/>
       <c r="H405" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="406" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B406" s="182"/>
-      <c r="C406" s="182"/>
-      <c r="D406" s="182"/>
-      <c r="E406" s="184"/>
-      <c r="F406" s="185" t="s">
+      <c r="B406" s="68"/>
+      <c r="C406" s="68"/>
+      <c r="D406" s="68"/>
+      <c r="E406" s="66"/>
+      <c r="F406" s="92" t="s">
         <v>2708</v>
       </c>
       <c r="G406" s="93"/>
       <c r="H406" s="90" t="s">
-        <v>2859</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="407" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B407" s="182"/>
-      <c r="C407" s="182"/>
-      <c r="D407" s="182"/>
-      <c r="E407" s="184"/>
-      <c r="F407" s="185" t="s">
+      <c r="B407" s="68"/>
+      <c r="C407" s="68"/>
+      <c r="D407" s="68"/>
+      <c r="E407" s="66"/>
+      <c r="F407" s="92" t="s">
         <v>2709</v>
       </c>
       <c r="G407" s="93"/>
       <c r="H407" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="408" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B408" s="182"/>
-      <c r="C408" s="182"/>
-      <c r="D408" s="182"/>
-      <c r="E408" s="184"/>
-      <c r="F408" s="185" t="s">
+      <c r="B408" s="68"/>
+      <c r="C408" s="68"/>
+      <c r="D408" s="68"/>
+      <c r="E408" s="66"/>
+      <c r="F408" s="92" t="s">
         <v>2710</v>
       </c>
       <c r="G408" s="93"/>
       <c r="H408" s="90" t="s">
-        <v>2872</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="409" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B409" s="182"/>
-      <c r="C409" s="182"/>
-      <c r="D409" s="182"/>
-      <c r="E409" s="184"/>
-      <c r="F409" s="185" t="s">
+      <c r="B409" s="68"/>
+      <c r="C409" s="68"/>
+      <c r="D409" s="68"/>
+      <c r="E409" s="66"/>
+      <c r="F409" s="92" t="s">
         <v>2711</v>
       </c>
       <c r="G409" s="93"/>
       <c r="H409" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="410" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B410" s="182"/>
-      <c r="C410" s="182"/>
-      <c r="D410" s="182"/>
-      <c r="E410" s="184"/>
-      <c r="F410" s="185"/>
-      <c r="G410" s="184"/>
+      <c r="B410" s="68"/>
+      <c r="C410" s="68"/>
+      <c r="D410" s="68"/>
+      <c r="E410" s="66"/>
+      <c r="F410" s="92"/>
+      <c r="G410" s="66"/>
       <c r="H410" s="90"/>
     </row>
     <row r="411" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B411" s="182" t="s">
+      <c r="B411" s="68" t="s">
         <v>2757</v>
       </c>
-      <c r="C411" s="182" t="s">
+      <c r="C411" s="68" t="s">
         <v>2794</v>
       </c>
-      <c r="D411" s="182">
+      <c r="D411" s="68">
         <v>1</v>
       </c>
-      <c r="E411" s="184" t="s">
+      <c r="E411" s="66" t="s">
         <v>2795</v>
       </c>
-      <c r="F411" s="185" t="s">
+      <c r="F411" s="92" t="s">
         <v>2796</v>
       </c>
-      <c r="G411" s="184" t="s">
+      <c r="G411" s="66" t="s">
         <v>2799</v>
       </c>
       <c r="H411" s="90" t="s">
-        <v>2858</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="412" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B412" s="182"/>
-      <c r="C412" s="182"/>
-      <c r="D412" s="182"/>
-      <c r="E412" s="184"/>
-      <c r="F412" s="185" t="s">
+      <c r="B412" s="68"/>
+      <c r="C412" s="68"/>
+      <c r="D412" s="68"/>
+      <c r="E412" s="66"/>
+      <c r="F412" s="92" t="s">
         <v>2797</v>
       </c>
-      <c r="G412" s="184" t="s">
+      <c r="G412" s="66" t="s">
         <v>2800</v>
       </c>
       <c r="H412" s="90" t="s">
-        <v>2857</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="413" spans="2:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="B413" s="182"/>
-      <c r="C413" s="182"/>
-      <c r="D413" s="182"/>
-      <c r="E413" s="184"/>
-      <c r="F413" s="185" t="s">
+      <c r="B413" s="68"/>
+      <c r="C413" s="68"/>
+      <c r="D413" s="68"/>
+      <c r="E413" s="66"/>
+      <c r="F413" s="92" t="s">
         <v>2798</v>
       </c>
-      <c r="G413" s="184" t="s">
+      <c r="G413" s="66" t="s">
         <v>2801</v>
       </c>
       <c r="H413" s="90" t="s">
-        <v>2851</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="414" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B414" s="182"/>
-      <c r="C414" s="182"/>
-      <c r="D414" s="182">
+      <c r="B414" s="68"/>
+      <c r="C414" s="68"/>
+      <c r="D414" s="68">
         <v>2</v>
       </c>
-      <c r="E414" s="184" t="s">
+      <c r="E414" s="66" t="s">
         <v>2802</v>
       </c>
       <c r="F414" s="185" t="s">
-        <v>2829</v>
-      </c>
-      <c r="G414" s="184" t="s">
-        <v>2819</v>
+        <v>2816</v>
+      </c>
+      <c r="G414" s="66" t="s">
+        <v>2806</v>
       </c>
       <c r="H414" s="90" t="s">
-        <v>2854</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="415" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B415" s="182"/>
-      <c r="C415" s="182"/>
-      <c r="D415" s="182"/>
-      <c r="E415" s="184"/>
+      <c r="B415" s="68"/>
+      <c r="C415" s="68"/>
+      <c r="D415" s="68"/>
+      <c r="E415" s="66"/>
       <c r="F415" s="185" t="s">
-        <v>2803</v>
-      </c>
-      <c r="G415" s="184" t="s">
-        <v>2817</v>
+        <v>2903</v>
+      </c>
+      <c r="G415" s="66" t="s">
+        <v>2804</v>
       </c>
       <c r="H415" s="90" t="s">
-        <v>2854</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="416" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B416" s="182"/>
-      <c r="C416" s="182"/>
-      <c r="D416" s="182"/>
-      <c r="E416" s="184"/>
+      <c r="B416" s="68"/>
+      <c r="C416" s="68"/>
+      <c r="D416" s="68"/>
+      <c r="E416" s="66"/>
       <c r="F416" s="185" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G416" s="66" t="s">
         <v>2804</v>
       </c>
-      <c r="G416" s="184" t="s">
-        <v>2817</v>
-      </c>
       <c r="H416" s="90" t="s">
-        <v>2854</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="417" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B417" s="182"/>
-      <c r="C417" s="182"/>
-      <c r="D417" s="182"/>
-      <c r="E417" s="184"/>
+      <c r="B417" s="68"/>
+      <c r="C417" s="68"/>
+      <c r="D417" s="68"/>
+      <c r="E417" s="66"/>
       <c r="F417" s="185" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G417" s="66" t="s">
         <v>2805</v>
-      </c>
-      <c r="G417" s="184" t="s">
-        <v>2818</v>
       </c>
       <c r="H417" s="90" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="418" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B418" s="182"/>
-      <c r="C418" s="182"/>
-      <c r="D418" s="182"/>
-      <c r="E418" s="184"/>
+      <c r="B418" s="68"/>
+      <c r="C418" s="68"/>
+      <c r="D418" s="68"/>
+      <c r="E418" s="66"/>
       <c r="F418" s="185" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G418" s="66" t="s">
+        <v>2804</v>
+      </c>
+      <c r="H418" s="90" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="419" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B419" s="68"/>
+      <c r="C419" s="68"/>
+      <c r="D419" s="68"/>
+      <c r="E419" s="66"/>
+      <c r="F419" s="185" t="s">
+        <v>2907</v>
+      </c>
+      <c r="G419" s="66" t="s">
         <v>2806</v>
       </c>
-      <c r="G418" s="184" t="s">
-        <v>2817</v>
-      </c>
-      <c r="H418" s="90" t="s">
-        <v>2854</v>
-      </c>
-    </row>
-    <row r="419" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B419" s="182"/>
-      <c r="C419" s="182"/>
-      <c r="D419" s="182"/>
-      <c r="E419" s="184"/>
-      <c r="F419" s="185" t="s">
-        <v>2807</v>
-      </c>
-      <c r="G419" s="184" t="s">
-        <v>2819</v>
-      </c>
       <c r="H419" s="90" t="s">
-        <v>2854</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="420" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B420" s="182"/>
-      <c r="C420" s="182"/>
-      <c r="D420" s="182"/>
-      <c r="E420" s="184"/>
+      <c r="B420" s="68"/>
+      <c r="C420" s="68"/>
+      <c r="D420" s="68"/>
+      <c r="E420" s="66"/>
       <c r="F420" s="185" t="s">
-        <v>2808</v>
-      </c>
-      <c r="G420" s="184" t="s">
-        <v>2816</v>
+        <v>2908</v>
+      </c>
+      <c r="G420" s="66" t="s">
+        <v>2803</v>
       </c>
       <c r="H420" s="90" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="421" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B421" s="182"/>
-      <c r="C421" s="182"/>
-      <c r="D421" s="182"/>
-      <c r="E421" s="184"/>
+      <c r="B421" s="68"/>
+      <c r="C421" s="68"/>
+      <c r="D421" s="68"/>
+      <c r="E421" s="66"/>
       <c r="F421" s="185" t="s">
-        <v>2809</v>
-      </c>
-      <c r="G421" s="184" t="s">
-        <v>2816</v>
+        <v>2909</v>
+      </c>
+      <c r="G421" s="66" t="s">
+        <v>2803</v>
       </c>
       <c r="H421" s="90" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="422" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B422" s="182"/>
-      <c r="C422" s="182"/>
-      <c r="D422" s="182"/>
-      <c r="E422" s="184"/>
+      <c r="B422" s="68"/>
+      <c r="C422" s="68"/>
+      <c r="D422" s="68"/>
+      <c r="E422" s="66"/>
       <c r="F422" s="185" t="s">
-        <v>2810</v>
-      </c>
-      <c r="G422" s="184" t="s">
-        <v>2819</v>
+        <v>2910</v>
+      </c>
+      <c r="G422" s="66" t="s">
+        <v>2806</v>
       </c>
       <c r="H422" s="90" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="423" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B423" s="182"/>
-      <c r="C423" s="182"/>
-      <c r="D423" s="182"/>
-      <c r="E423" s="184"/>
+      <c r="B423" s="68"/>
+      <c r="C423" s="68"/>
+      <c r="D423" s="68"/>
+      <c r="E423" s="66"/>
       <c r="F423" s="185" t="s">
-        <v>2811</v>
-      </c>
-      <c r="G423" s="184" t="s">
-        <v>2816</v>
+        <v>2911</v>
+      </c>
+      <c r="G423" s="66" t="s">
+        <v>2803</v>
       </c>
       <c r="H423" s="90" t="s">
-        <v>2854</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="424" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B424" s="182"/>
-      <c r="C424" s="182"/>
-      <c r="D424" s="182"/>
-      <c r="E424" s="184"/>
+      <c r="B424" s="68"/>
+      <c r="C424" s="68"/>
+      <c r="D424" s="68"/>
+      <c r="E424" s="66"/>
       <c r="F424" s="185" t="s">
-        <v>2812</v>
-      </c>
-      <c r="G424" s="184" t="s">
-        <v>2816</v>
+        <v>2912</v>
+      </c>
+      <c r="G424" s="66" t="s">
+        <v>2803</v>
       </c>
       <c r="H424" s="90" t="s">
-        <v>2854</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="425" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B425" s="182"/>
-      <c r="C425" s="182"/>
-      <c r="D425" s="182"/>
-      <c r="E425" s="184"/>
+      <c r="B425" s="68"/>
+      <c r="C425" s="68"/>
+      <c r="D425" s="68"/>
+      <c r="E425" s="66"/>
       <c r="F425" s="185" t="s">
-        <v>2813</v>
-      </c>
-      <c r="G425" s="184" t="s">
-        <v>2819</v>
+        <v>2913</v>
+      </c>
+      <c r="G425" s="66" t="s">
+        <v>2806</v>
       </c>
       <c r="H425" s="90" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="426" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B426" s="182"/>
-      <c r="C426" s="182"/>
-      <c r="D426" s="182"/>
-      <c r="E426" s="184"/>
+      <c r="B426" s="68"/>
+      <c r="C426" s="68"/>
+      <c r="D426" s="68"/>
+      <c r="E426" s="66"/>
       <c r="F426" s="185" t="s">
-        <v>2814</v>
-      </c>
-      <c r="G426" s="184" t="s">
-        <v>2816</v>
+        <v>2914</v>
+      </c>
+      <c r="G426" s="66" t="s">
+        <v>2803</v>
       </c>
       <c r="H426" s="90" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="427" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B427" s="182"/>
-      <c r="C427" s="182"/>
-      <c r="D427" s="182"/>
-      <c r="E427" s="184"/>
+      <c r="B427" s="68"/>
+      <c r="C427" s="68"/>
+      <c r="D427" s="68"/>
+      <c r="E427" s="66"/>
       <c r="F427" s="185" t="s">
-        <v>2815</v>
-      </c>
-      <c r="G427" s="184" t="s">
-        <v>2816</v>
+        <v>2915</v>
+      </c>
+      <c r="G427" s="66" t="s">
+        <v>2803</v>
       </c>
       <c r="H427" s="90" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="428" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B428" s="182"/>
-      <c r="C428" s="182"/>
-      <c r="D428" s="182">
+      <c r="B428" s="68"/>
+      <c r="C428" s="68"/>
+      <c r="D428" s="68">
         <v>3</v>
       </c>
-      <c r="E428" s="184" t="s">
-        <v>2820</v>
-      </c>
-      <c r="F428" s="185" t="s">
-        <v>2821</v>
-      </c>
-      <c r="G428" s="184" t="s">
-        <v>2823</v>
+      <c r="E428" s="66" t="s">
+        <v>2807</v>
+      </c>
+      <c r="F428" s="92" t="s">
+        <v>2808</v>
+      </c>
+      <c r="G428" s="66" t="s">
+        <v>2810</v>
       </c>
       <c r="H428" s="90" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="429" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B429" s="182"/>
-      <c r="C429" s="182"/>
-      <c r="D429" s="182"/>
-      <c r="E429" s="184"/>
-      <c r="F429" s="185" t="s">
-        <v>2822</v>
-      </c>
-      <c r="G429" s="184" t="s">
-        <v>2824</v>
+      <c r="B429" s="68"/>
+      <c r="C429" s="68"/>
+      <c r="D429" s="68"/>
+      <c r="E429" s="66"/>
+      <c r="F429" s="92" t="s">
+        <v>2809</v>
+      </c>
+      <c r="G429" s="66" t="s">
+        <v>2811</v>
       </c>
       <c r="H429" s="90" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="430" spans="2:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="B430" s="182" t="s">
-        <v>2825</v>
-      </c>
-      <c r="C430" s="183" t="s">
-        <v>2826</v>
-      </c>
-      <c r="D430" s="182">
+      <c r="B430" s="68" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C430" s="27" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D430" s="68">
         <v>1</v>
       </c>
-      <c r="E430" s="184" t="s">
-        <v>2827</v>
-      </c>
-      <c r="F430" s="185"/>
-      <c r="G430" s="184" t="s">
-        <v>2828</v>
+      <c r="E430" s="66" t="s">
+        <v>2814</v>
+      </c>
+      <c r="F430" s="92"/>
+      <c r="G430" s="66" t="s">
+        <v>2815</v>
       </c>
       <c r="H430" s="90" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="431" spans="2:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B431" s="182"/>
-      <c r="C431" s="182"/>
-      <c r="D431" s="182">
+      <c r="B431" s="68"/>
+      <c r="C431" s="68"/>
+      <c r="D431" s="68">
         <v>2</v>
       </c>
-      <c r="E431" s="184" t="s">
-        <v>2830</v>
-      </c>
-      <c r="F431" s="185" t="s">
-        <v>2831</v>
-      </c>
-      <c r="G431" s="184" t="s">
-        <v>2832</v>
+      <c r="E431" s="66" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F431" s="92" t="s">
+        <v>2818</v>
+      </c>
+      <c r="G431" s="66" t="s">
+        <v>2819</v>
       </c>
       <c r="H431" s="90" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="432" spans="2:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="B432" s="182"/>
-      <c r="C432" s="182"/>
-      <c r="D432" s="182"/>
-      <c r="E432" s="184"/>
-      <c r="F432" s="185" t="s">
-        <v>2833</v>
-      </c>
-      <c r="G432" s="184" t="s">
-        <v>2832</v>
+      <c r="B432" s="68"/>
+      <c r="C432" s="68"/>
+      <c r="D432" s="68"/>
+      <c r="E432" s="66"/>
+      <c r="F432" s="92" t="s">
+        <v>2820</v>
+      </c>
+      <c r="G432" s="66" t="s">
+        <v>2819</v>
       </c>
       <c r="H432" s="90" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="433" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="B433" s="182"/>
-      <c r="C433" s="182"/>
-      <c r="D433" s="182">
+      <c r="B433" s="68"/>
+      <c r="C433" s="68"/>
+      <c r="D433" s="68">
         <v>3</v>
       </c>
-      <c r="E433" s="184" t="s">
-        <v>2835</v>
-      </c>
-      <c r="F433" s="185" t="s">
-        <v>2836</v>
-      </c>
-      <c r="G433" s="184" t="s">
-        <v>2834</v>
+      <c r="E433" s="66" t="s">
+        <v>2822</v>
+      </c>
+      <c r="F433" s="92" t="s">
+        <v>2823</v>
+      </c>
+      <c r="G433" s="66" t="s">
+        <v>2821</v>
       </c>
       <c r="H433" s="90" t="s">
-        <v>2857</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="434" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="B434" s="182"/>
-      <c r="C434" s="182"/>
-      <c r="D434" s="182"/>
-      <c r="E434" s="184"/>
-      <c r="F434" s="184" t="s">
-        <v>2837</v>
-      </c>
-      <c r="G434" s="184" t="s">
-        <v>2856</v>
+      <c r="B434" s="68"/>
+      <c r="C434" s="68"/>
+      <c r="D434" s="68"/>
+      <c r="E434" s="66"/>
+      <c r="F434" s="66" t="s">
+        <v>2824</v>
+      </c>
+      <c r="G434" s="66" t="s">
+        <v>2843</v>
       </c>
       <c r="H434" s="90" t="s">
-        <v>2853</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
@@ -36397,63 +36444,63 @@
       <c r="E517" s="36" t="s">
         <v>2570</v>
       </c>
-      <c r="F517" s="36" t="s">
-        <v>2842</v>
-      </c>
-      <c r="G517" s="184" t="s">
-        <v>2843</v>
+      <c r="F517" s="111" t="s">
+        <v>2829</v>
+      </c>
+      <c r="G517" s="78" t="s">
+        <v>2830</v>
       </c>
     </row>
     <row r="518" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="F518" s="89" t="s">
+      <c r="F518" s="112" t="s">
         <v>2571</v>
       </c>
-      <c r="G518" s="36" t="s">
+      <c r="G518" s="111" t="s">
         <v>2572</v>
       </c>
     </row>
-    <row r="519" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D519" s="32">
+    <row r="519" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="F519" s="199" t="s">
+        <v>2919</v>
+      </c>
+      <c r="G519" s="198" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="520" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="F520" s="199" t="s">
+        <v>2918</v>
+      </c>
+      <c r="G520" s="198" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="521" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D521" s="32">
         <v>5</v>
       </c>
-      <c r="E519" s="36" t="s">
+      <c r="E521" s="36" t="s">
         <v>2573</v>
       </c>
-      <c r="G519" s="36" t="s">
+      <c r="G521" s="36" t="s">
         <v>2574</v>
       </c>
     </row>
-    <row r="521" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="B521" s="32" t="s">
+    <row r="523" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B523" s="32" t="s">
         <v>2583</v>
       </c>
-      <c r="C521" s="32" t="s">
+      <c r="C523" s="32" t="s">
         <v>2575</v>
       </c>
-      <c r="D521" s="32">
+      <c r="D523" s="32">
         <v>1</v>
       </c>
-      <c r="E521" s="36" t="s">
+      <c r="E523" s="36" t="s">
         <v>2591</v>
       </c>
-      <c r="F521" s="89" t="s">
+      <c r="F523" s="89" t="s">
         <v>2577</v>
-      </c>
-      <c r="G521" s="36" t="s">
-        <v>2581</v>
-      </c>
-    </row>
-    <row r="522" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F522" s="89" t="s">
-        <v>2578</v>
-      </c>
-      <c r="G522" s="36" t="s">
-        <v>2581</v>
-      </c>
-    </row>
-    <row r="523" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F523" s="89" t="s">
-        <v>2579</v>
       </c>
       <c r="G523" s="36" t="s">
         <v>2581</v>
@@ -36461,7 +36508,7 @@
     </row>
     <row r="524" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F524" s="89" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="G524" s="36" t="s">
         <v>2581</v>
@@ -36469,37 +36516,37 @@
     </row>
     <row r="525" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F525" s="89" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="G525" s="36" t="s">
         <v>2581</v>
       </c>
     </row>
-    <row r="526" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="D526" s="32">
-        <v>2</v>
-      </c>
-      <c r="E526" s="36" t="s">
-        <v>2592</v>
-      </c>
+    <row r="526" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F526" s="89" t="s">
-        <v>2577</v>
+        <v>2580</v>
       </c>
       <c r="G526" s="36" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="527" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F527" s="89" t="s">
-        <v>2578</v>
+        <v>2585</v>
       </c>
       <c r="G527" s="36" t="s">
-        <v>2584</v>
-      </c>
-    </row>
-    <row r="528" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="528" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="D528" s="32">
+        <v>2</v>
+      </c>
+      <c r="E528" s="36" t="s">
+        <v>2592</v>
+      </c>
       <c r="F528" s="89" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="G528" s="36" t="s">
         <v>2584</v>
@@ -36507,7 +36554,7 @@
     </row>
     <row r="529" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F529" s="89" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="G529" s="36" t="s">
         <v>2584</v>
@@ -36515,73 +36562,73 @@
     </row>
     <row r="530" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F530" s="89" t="s">
+        <v>2579</v>
+      </c>
+      <c r="G530" s="36" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="531" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F531" s="89" t="s">
+        <v>2580</v>
+      </c>
+      <c r="G531" s="36" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="532" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F532" s="89" t="s">
         <v>2585</v>
       </c>
-      <c r="G530" s="36" t="s">
+      <c r="G532" s="36" t="s">
         <v>2581</v>
       </c>
     </row>
-    <row r="532" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="B532" s="32" t="s">
+    <row r="534" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B534" s="32" t="s">
         <v>2576</v>
       </c>
-      <c r="C532" s="32" t="s">
+      <c r="C534" s="32" t="s">
         <v>2595</v>
       </c>
-      <c r="D532" s="32">
+      <c r="D534" s="32">
         <v>1</v>
       </c>
-      <c r="E532" s="36" t="s">
+      <c r="E534" s="36" t="s">
         <v>2597</v>
       </c>
-      <c r="F532" s="89" t="s">
+      <c r="F534" s="89" t="s">
         <v>2598</v>
       </c>
-      <c r="G532" s="36" t="s">
+      <c r="G534" s="36" t="s">
         <v>2600</v>
-      </c>
-    </row>
-    <row r="533" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F533" s="89" t="s">
-        <v>2599</v>
-      </c>
-      <c r="G533" s="36" t="s">
-        <v>2601</v>
-      </c>
-    </row>
-    <row r="534" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D534" s="32">
-        <v>2</v>
-      </c>
-      <c r="E534" s="36" t="s">
-        <v>2596</v>
-      </c>
-      <c r="F534" s="89" t="s">
-        <v>2602</v>
-      </c>
-      <c r="G534" s="36" t="s">
-        <v>2603</v>
       </c>
     </row>
     <row r="535" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F535" s="89" t="s">
-        <v>2578</v>
+        <v>2599</v>
       </c>
       <c r="G535" s="36" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="536" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D536" s="32">
+        <v>2</v>
+      </c>
+      <c r="E536" s="36" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F536" s="89" t="s">
+        <v>2602</v>
+      </c>
+      <c r="G536" s="36" t="s">
         <v>2603</v>
-      </c>
-    </row>
-    <row r="536" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F536" s="89" t="s">
-        <v>2579</v>
-      </c>
-      <c r="G536" s="36" t="s">
-        <v>2606</v>
       </c>
     </row>
     <row r="537" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F537" s="89" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="G537" s="36" t="s">
         <v>2603</v>
@@ -36589,80 +36636,80 @@
     </row>
     <row r="538" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F538" s="89" t="s">
+        <v>2579</v>
+      </c>
+      <c r="G538" s="36" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="539" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F539" s="89" t="s">
+        <v>2580</v>
+      </c>
+      <c r="G539" s="36" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="540" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F540" s="89" t="s">
         <v>2585</v>
       </c>
-      <c r="G538" s="36" t="s">
+      <c r="G540" s="36" t="s">
         <v>2604</v>
       </c>
     </row>
-    <row r="539" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D539" s="32">
+    <row r="541" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D541" s="32">
         <v>3</v>
       </c>
-      <c r="E539" s="36" t="s">
+      <c r="E541" s="36" t="s">
         <v>2607</v>
       </c>
-      <c r="G539" s="36" t="s">
+      <c r="G541" s="36" t="s">
         <v>2608</v>
       </c>
     </row>
-    <row r="540" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D540" s="32">
+    <row r="542" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D542" s="32">
         <v>4</v>
       </c>
-      <c r="E540" s="36" t="s">
+      <c r="E542" s="36" t="s">
         <v>2609</v>
       </c>
-      <c r="G540" s="36" t="s">
+      <c r="G542" s="36" t="s">
         <v>2610</v>
       </c>
     </row>
-    <row r="542" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="B542" s="32" t="s">
+    <row r="544" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B544" s="32" t="s">
         <v>2576</v>
       </c>
-      <c r="C542" s="32" t="s">
+      <c r="C544" s="32" t="s">
         <v>2611</v>
       </c>
-      <c r="D542" s="32">
+      <c r="D544" s="32">
         <v>1</v>
       </c>
-      <c r="E542" s="36" t="s">
+      <c r="E544" s="36" t="s">
         <v>2612</v>
       </c>
-      <c r="G542" s="36" t="s">
+      <c r="G544" s="36" t="s">
         <v>2613</v>
       </c>
     </row>
-    <row r="544" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B544" s="81" t="s">
+    <row r="546" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B546" s="81" t="s">
         <v>2618</v>
       </c>
-      <c r="C544" s="81" t="s">
+      <c r="C546" s="81" t="s">
         <v>2619</v>
       </c>
-      <c r="D544" s="81">
+      <c r="D546" s="81">
         <v>1</v>
       </c>
-      <c r="E544" s="93" t="s">
+      <c r="E546" s="93" t="s">
         <v>2620</v>
       </c>
-      <c r="F544" s="96"/>
-      <c r="G544" s="93"/>
-    </row>
-    <row r="545" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B545" s="81"/>
-      <c r="C545" s="81"/>
-      <c r="D545" s="81"/>
-      <c r="E545" s="93"/>
-      <c r="F545" s="96"/>
-      <c r="G545" s="93"/>
-    </row>
-    <row r="546" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B546" s="81"/>
-      <c r="C546" s="81"/>
-      <c r="D546" s="81"/>
-      <c r="E546" s="93"/>
       <c r="F546" s="96"/>
       <c r="G546" s="93"/>
     </row>
@@ -36698,72 +36745,72 @@
       <c r="F550" s="96"/>
       <c r="G550" s="93"/>
     </row>
-    <row r="554" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="B554" s="32" t="s">
+    <row r="551" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B551" s="81"/>
+      <c r="C551" s="81"/>
+      <c r="D551" s="81"/>
+      <c r="E551" s="93"/>
+      <c r="F551" s="96"/>
+      <c r="G551" s="93"/>
+    </row>
+    <row r="552" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B552" s="81"/>
+      <c r="C552" s="81"/>
+      <c r="D552" s="81"/>
+      <c r="E552" s="93"/>
+      <c r="F552" s="96"/>
+      <c r="G552" s="93"/>
+    </row>
+    <row r="556" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B556" s="32" t="s">
         <v>2576</v>
       </c>
-      <c r="C554" s="23" t="s">
+      <c r="C556" s="23" t="s">
         <v>2623</v>
       </c>
-      <c r="D554" s="32">
+      <c r="D556" s="32">
         <v>1</v>
       </c>
-      <c r="E554" s="36" t="s">
+      <c r="E556" s="36" t="s">
         <v>2614</v>
       </c>
-      <c r="G554" s="36" t="s">
+      <c r="G556" s="36" t="s">
         <v>2617</v>
-      </c>
-    </row>
-    <row r="555" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F555" s="89" t="s">
-        <v>2616</v>
-      </c>
-      <c r="G555" s="36" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="556" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F556" s="89" t="s">
-        <v>2615</v>
-      </c>
-      <c r="G556" s="36" t="s">
-        <v>2622</v>
       </c>
     </row>
     <row r="557" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F557" s="89" t="s">
-        <v>2628</v>
+        <v>2616</v>
       </c>
       <c r="G557" s="36" t="s">
-        <v>2629</v>
-      </c>
-    </row>
-    <row r="558" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="D558" s="32">
-        <v>2</v>
-      </c>
-      <c r="E558" s="36" t="s">
-        <v>2635</v>
-      </c>
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="558" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F558" s="89" t="s">
-        <v>2624</v>
+        <v>2615</v>
       </c>
       <c r="G558" s="36" t="s">
-        <v>2638</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="559" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F559" s="89" t="s">
-        <v>2636</v>
+        <v>2628</v>
       </c>
       <c r="G559" s="36" t="s">
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="560" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="560" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="D560" s="32">
+        <v>2</v>
+      </c>
+      <c r="E560" s="36" t="s">
+        <v>2635</v>
+      </c>
       <c r="F560" s="89" t="s">
-        <v>2637</v>
+        <v>2624</v>
       </c>
       <c r="G560" s="36" t="s">
         <v>2638</v>
@@ -36771,93 +36818,91 @@
     </row>
     <row r="561" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F561" s="89" t="s">
-        <v>2625</v>
+        <v>2636</v>
       </c>
       <c r="G561" s="36" t="s">
         <v>2638</v>
       </c>
     </row>
     <row r="562" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D562" s="32">
+      <c r="F562" s="89" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G562" s="36" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="563" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F563" s="89" t="s">
+        <v>2625</v>
+      </c>
+      <c r="G563" s="36" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="564" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D564" s="32">
         <v>3</v>
       </c>
-      <c r="E562" s="36" t="s">
+      <c r="E564" s="36" t="s">
         <v>2626</v>
       </c>
-      <c r="G562" s="36" t="s">
+      <c r="G564" s="36" t="s">
         <v>2627</v>
       </c>
     </row>
-    <row r="564" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="B564" s="32" t="s">
+    <row r="566" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B566" s="32" t="s">
         <v>2583</v>
       </c>
-      <c r="C564" s="23" t="s">
+      <c r="C566" s="23" t="s">
         <v>2630</v>
       </c>
-      <c r="D564" s="32">
+      <c r="D566" s="32">
         <v>1</v>
       </c>
-      <c r="E564" s="36" t="s">
+      <c r="E566" s="36" t="s">
         <v>2631</v>
       </c>
-      <c r="F564" s="41"/>
-      <c r="G564" s="36" t="s">
+      <c r="F566" s="41"/>
+      <c r="G566" s="36" t="s">
         <v>2639</v>
       </c>
     </row>
-    <row r="565" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C565" s="23"/>
-      <c r="F565" s="89" t="s">
+    <row r="567" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C567" s="23"/>
+      <c r="F567" s="89" t="s">
         <v>2632</v>
       </c>
-      <c r="G565" s="36" t="s">
+      <c r="G567" s="36" t="s">
         <v>2646</v>
       </c>
     </row>
-    <row r="566" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F566" s="89" t="s">
+    <row r="568" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F568" s="89" t="s">
         <v>2633</v>
       </c>
-      <c r="G566" s="36" t="s">
+      <c r="G568" s="36" t="s">
         <v>2647</v>
       </c>
     </row>
-    <row r="567" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F567" s="89" t="s">
+    <row r="569" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F569" s="89" t="s">
         <v>2634</v>
       </c>
-      <c r="G567" s="36" t="s">
+      <c r="G569" s="36" t="s">
         <v>2648</v>
       </c>
     </row>
-    <row r="568" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="D568" s="32">
+    <row r="570" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="D570" s="32">
         <v>2</v>
       </c>
-      <c r="E568" s="36" t="s">
+      <c r="E570" s="36" t="s">
         <v>2640</v>
       </c>
-      <c r="F568" s="89" t="s">
+      <c r="F570" s="89" t="s">
         <v>2641</v>
-      </c>
-      <c r="G568" s="36" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="569" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C569" s="23"/>
-      <c r="F569" s="89" t="s">
-        <v>2642</v>
-      </c>
-      <c r="G569" s="36" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="570" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C570" s="23"/>
-      <c r="F570" s="89" t="s">
-        <v>2643</v>
       </c>
       <c r="G570" s="36" t="s">
         <v>2645</v>
@@ -36866,7 +36911,7 @@
     <row r="571" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C571" s="23"/>
       <c r="F571" s="89" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="G571" s="36" t="s">
         <v>2645</v>
@@ -36874,52 +36919,52 @@
     </row>
     <row r="572" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C572" s="23"/>
-      <c r="D572" s="32">
-        <v>3</v>
-      </c>
-      <c r="E572" s="36" t="s">
-        <v>2656</v>
+      <c r="F572" s="89" t="s">
+        <v>2643</v>
       </c>
       <c r="G572" s="36" t="s">
-        <v>2657</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="573" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C573" s="23"/>
-    </row>
-    <row r="574" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="B574" s="32" t="s">
-        <v>809</v>
-      </c>
-      <c r="C574" s="23" t="s">
-        <v>2672</v>
-      </c>
+      <c r="F573" s="89" t="s">
+        <v>2644</v>
+      </c>
+      <c r="G573" s="36" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="574" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C574" s="23"/>
       <c r="D574" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E574" s="36" t="s">
-        <v>2673</v>
-      </c>
-      <c r="F574" s="89" t="s">
-        <v>2674</v>
+        <v>2656</v>
       </c>
       <c r="G574" s="36" t="s">
-        <v>2677</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="575" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C575" s="23"/>
-      <c r="F575" s="89" t="s">
-        <v>2676</v>
-      </c>
-      <c r="G575" s="36" t="s">
-        <v>2677</v>
-      </c>
-    </row>
-    <row r="576" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C576" s="23"/>
+    </row>
+    <row r="576" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B576" s="32" t="s">
+        <v>809</v>
+      </c>
+      <c r="C576" s="23" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D576" s="32">
+        <v>1</v>
+      </c>
+      <c r="E576" s="36" t="s">
+        <v>2673</v>
+      </c>
       <c r="F576" s="89" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="G576" s="36" t="s">
         <v>2677</v>
@@ -36927,578 +36972,626 @@
     </row>
     <row r="577" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C577" s="23"/>
-    </row>
-    <row r="578" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="B578" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C578" s="23" t="s">
-        <v>2654</v>
-      </c>
-      <c r="D578" s="32">
-        <v>1</v>
-      </c>
-      <c r="E578" s="36" t="s">
-        <v>2653</v>
-      </c>
+      <c r="F577" s="89" t="s">
+        <v>2676</v>
+      </c>
+      <c r="G577" s="36" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="578" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C578" s="23"/>
       <c r="F578" s="89" t="s">
-        <v>2649</v>
+        <v>2675</v>
       </c>
       <c r="G578" s="36" t="s">
-        <v>2655</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="579" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C579" s="23"/>
-      <c r="F579" s="89" t="s">
+    </row>
+    <row r="580" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B580" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C580" s="23" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D580" s="32">
+        <v>1</v>
+      </c>
+      <c r="E580" s="36" t="s">
+        <v>2653</v>
+      </c>
+      <c r="F580" s="89" t="s">
+        <v>2649</v>
+      </c>
+      <c r="G580" s="36" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="581" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C581" s="23"/>
+      <c r="F581" s="89" t="s">
         <v>2650</v>
       </c>
-      <c r="G579" s="36" t="s">
+      <c r="G581" s="36" t="s">
         <v>2652</v>
-      </c>
-    </row>
-    <row r="580" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C580" s="23"/>
-      <c r="F580" s="89" t="s">
-        <v>2651</v>
-      </c>
-      <c r="G580" s="36" t="s">
-        <v>2652</v>
-      </c>
-    </row>
-    <row r="581" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="C581" s="23"/>
-      <c r="D581" s="32">
-        <v>2</v>
-      </c>
-      <c r="E581" s="36" t="s">
-        <v>2658</v>
-      </c>
-      <c r="F581" s="89" t="s">
-        <v>2649</v>
-      </c>
-      <c r="G581" s="36" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="582" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C582" s="23"/>
       <c r="F582" s="89" t="s">
+        <v>2651</v>
+      </c>
+      <c r="G582" s="36" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="583" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="C583" s="23"/>
+      <c r="D583" s="32">
+        <v>2</v>
+      </c>
+      <c r="E583" s="36" t="s">
+        <v>2658</v>
+      </c>
+      <c r="F583" s="89" t="s">
+        <v>2649</v>
+      </c>
+      <c r="G583" s="36" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="584" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C584" s="23"/>
+      <c r="F584" s="89" t="s">
         <v>2650</v>
       </c>
-      <c r="G582" s="36" t="s">
+      <c r="G584" s="36" t="s">
         <v>2659</v>
-      </c>
-    </row>
-    <row r="583" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C583" s="23"/>
-      <c r="F583" s="89" t="s">
-        <v>2651</v>
-      </c>
-      <c r="G583" s="36" t="s">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="584" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="C584" s="23"/>
-      <c r="D584" s="32">
-        <v>3</v>
-      </c>
-      <c r="E584" s="36" t="s">
-        <v>2661</v>
-      </c>
-      <c r="G584" s="36" t="s">
-        <v>2662</v>
       </c>
     </row>
     <row r="585" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C585" s="23"/>
       <c r="F585" s="89" t="s">
+        <v>2651</v>
+      </c>
+      <c r="G585" s="36" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="586" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="C586" s="23"/>
+      <c r="D586" s="32">
+        <v>3</v>
+      </c>
+      <c r="E586" s="36" t="s">
+        <v>2661</v>
+      </c>
+      <c r="G586" s="36" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="587" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C587" s="23"/>
+      <c r="F587" s="89" t="s">
         <v>2667</v>
       </c>
-      <c r="G585" s="36" t="s">
+      <c r="G587" s="36" t="s">
         <v>2668</v>
       </c>
     </row>
-    <row r="586" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D586" s="32">
+    <row r="588" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D588" s="32">
         <v>4</v>
       </c>
-      <c r="E586" s="36" t="s">
+      <c r="E588" s="36" t="s">
         <v>2663</v>
       </c>
-      <c r="F586" s="89" t="s">
+      <c r="F588" s="89" t="s">
         <v>2666</v>
       </c>
-      <c r="G586" s="36" t="s">
+      <c r="G588" s="36" t="s">
         <v>2669</v>
       </c>
     </row>
-    <row r="587" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F587" s="89" t="s">
+    <row r="589" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F589" s="89" t="s">
         <v>2664</v>
       </c>
-      <c r="G587" s="36" t="s">
+      <c r="G589" s="36" t="s">
         <v>2670</v>
       </c>
     </row>
-    <row r="588" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="F588" s="89" t="s">
+    <row r="590" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="F590" s="89" t="s">
         <v>2665</v>
       </c>
-      <c r="G588" s="36" t="s">
+      <c r="G590" s="36" t="s">
         <v>2671</v>
       </c>
     </row>
-    <row r="589" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D589" s="32">
+    <row r="591" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D591" s="32">
         <v>5</v>
       </c>
-      <c r="E589" s="36" t="s">
+      <c r="E591" s="36" t="s">
         <v>2678</v>
       </c>
-      <c r="F589" s="89" t="s">
+      <c r="F591" s="89" t="s">
         <v>2682</v>
       </c>
-      <c r="G589" s="36" t="s">
+      <c r="G591" s="36" t="s">
         <v>2680</v>
       </c>
     </row>
-    <row r="590" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F590" s="89" t="s">
+    <row r="592" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F592" s="89" t="s">
         <v>2683</v>
       </c>
-      <c r="G590" s="36" t="s">
+      <c r="G592" s="36" t="s">
         <v>2680</v>
       </c>
     </row>
-    <row r="591" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="F591" s="89" t="s">
+    <row r="593" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="F593" s="89" t="s">
         <v>2679</v>
       </c>
-      <c r="G591" s="36" t="s">
+      <c r="G593" s="36" t="s">
         <v>2681</v>
       </c>
     </row>
-    <row r="593" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="B593" s="182" t="s">
-        <v>2844</v>
-      </c>
-      <c r="C593" s="183" t="s">
-        <v>2845</v>
-      </c>
-      <c r="D593" s="182">
+    <row r="595" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="B595" s="182" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C595" s="183" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D595" s="182">
         <v>1</v>
       </c>
-      <c r="E593" s="184" t="s">
-        <v>2846</v>
-      </c>
-      <c r="F593" s="185"/>
-      <c r="G593" s="184" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="595" spans="1:12" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="187" t="s">
+      <c r="E595" s="184" t="s">
+        <v>2833</v>
+      </c>
+      <c r="F595" s="185"/>
+      <c r="G595" s="184" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="597" spans="1:12" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="187" t="s">
         <v>2714</v>
       </c>
-      <c r="B595" s="129"/>
-      <c r="C595" s="129"/>
-      <c r="D595" s="129"/>
-      <c r="E595" s="130"/>
-      <c r="F595" s="131"/>
-      <c r="G595" s="130"/>
-      <c r="L595" s="186"/>
-    </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B596" s="182" t="s">
+      <c r="B597" s="129"/>
+      <c r="C597" s="129"/>
+      <c r="D597" s="129"/>
+      <c r="E597" s="130"/>
+      <c r="F597" s="131"/>
+      <c r="G597" s="130"/>
+      <c r="L597" s="186"/>
+    </row>
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B598" s="68" t="s">
         <v>2715</v>
       </c>
-      <c r="C596" s="182" t="s">
+      <c r="C598" s="68" t="s">
         <v>2714</v>
       </c>
-      <c r="D596" s="182">
+      <c r="D598" s="68">
         <v>1</v>
       </c>
-      <c r="E596" s="184" t="s">
+      <c r="E598" s="66" t="s">
         <v>2716</v>
       </c>
-      <c r="F596" s="185" t="s">
+      <c r="F598" s="92" t="s">
         <v>2739</v>
       </c>
-      <c r="G596" s="115"/>
-      <c r="H596" s="90"/>
-    </row>
-    <row r="597" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="B597" s="182"/>
-      <c r="C597" s="182"/>
-      <c r="D597" s="182"/>
-      <c r="E597" s="184"/>
-      <c r="F597" s="185" t="s">
+      <c r="G598" s="70"/>
+      <c r="H598" s="90"/>
+    </row>
+    <row r="599" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="B599" s="68"/>
+      <c r="C599" s="68"/>
+      <c r="D599" s="68"/>
+      <c r="E599" s="66"/>
+      <c r="F599" s="92" t="s">
         <v>2740</v>
       </c>
-      <c r="G597" s="184" t="s">
+      <c r="G599" s="66" t="s">
         <v>2717</v>
       </c>
-      <c r="H597" s="90" t="s">
-        <v>2865</v>
-      </c>
-    </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B598" s="182"/>
-      <c r="C598" s="182"/>
-      <c r="D598" s="182"/>
-      <c r="E598" s="184"/>
-      <c r="F598" s="185" t="s">
+      <c r="H599" s="90" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B600" s="68"/>
+      <c r="C600" s="68"/>
+      <c r="D600" s="68"/>
+      <c r="E600" s="66"/>
+      <c r="F600" s="92" t="s">
         <v>2741</v>
       </c>
-      <c r="G598" s="184" t="s">
+      <c r="G600" s="66" t="s">
         <v>2742</v>
       </c>
-      <c r="H598" s="90" t="s">
+      <c r="H600" s="90" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B601" s="68"/>
+      <c r="C601" s="68"/>
+      <c r="D601" s="68">
+        <v>2</v>
+      </c>
+      <c r="E601" s="66" t="s">
+        <v>2718</v>
+      </c>
+      <c r="F601" s="92" t="s">
+        <v>2719</v>
+      </c>
+      <c r="G601" s="66" t="s">
+        <v>2723</v>
+      </c>
+      <c r="H601" s="90" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="602" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="B602" s="68"/>
+      <c r="C602" s="68"/>
+      <c r="D602" s="68"/>
+      <c r="E602" s="66"/>
+      <c r="F602" s="92" t="s">
+        <v>2720</v>
+      </c>
+      <c r="G602" s="66" t="s">
+        <v>2721</v>
+      </c>
+      <c r="H602" s="90" t="s">
         <v>2853</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B599" s="182"/>
-      <c r="C599" s="182"/>
-      <c r="D599" s="182">
-        <v>2</v>
-      </c>
-      <c r="E599" s="184" t="s">
-        <v>2718</v>
-      </c>
-      <c r="F599" s="185" t="s">
-        <v>2719</v>
-      </c>
-      <c r="G599" s="184" t="s">
-        <v>2723</v>
-      </c>
-      <c r="H599" s="90" t="s">
-        <v>2853</v>
-      </c>
-    </row>
-    <row r="600" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="B600" s="182"/>
-      <c r="C600" s="182"/>
-      <c r="D600" s="182"/>
-      <c r="E600" s="184"/>
-      <c r="F600" s="185" t="s">
-        <v>2720</v>
-      </c>
-      <c r="G600" s="184" t="s">
-        <v>2721</v>
-      </c>
-      <c r="H600" s="90" t="s">
-        <v>2866</v>
-      </c>
-    </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B601" s="182"/>
-      <c r="C601" s="182"/>
-      <c r="D601" s="182">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B603" s="68"/>
+      <c r="C603" s="68"/>
+      <c r="D603" s="68">
         <v>3</v>
       </c>
-      <c r="E601" s="184" t="s">
+      <c r="E603" s="66" t="s">
         <v>2724</v>
       </c>
-      <c r="F601" s="185"/>
-      <c r="G601" s="184" t="s">
+      <c r="F603" s="92"/>
+      <c r="G603" s="66" t="s">
         <v>2722</v>
       </c>
-      <c r="H601" s="90" t="s">
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B602" s="182"/>
-      <c r="C602" s="182"/>
-      <c r="D602" s="182">
+      <c r="H603" s="90" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B604" s="68"/>
+      <c r="C604" s="68"/>
+      <c r="D604" s="68">
         <v>4</v>
       </c>
-      <c r="E602" s="184" t="s">
+      <c r="E604" s="66" t="s">
         <v>2725</v>
       </c>
-      <c r="F602" s="185"/>
-      <c r="G602" s="184" t="s">
+      <c r="F604" s="92"/>
+      <c r="G604" s="66" t="s">
         <v>2728</v>
       </c>
-      <c r="H602" s="90" t="s">
-        <v>2865</v>
-      </c>
-    </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B603" s="182"/>
-      <c r="C603" s="182"/>
-      <c r="D603" s="182"/>
-      <c r="E603" s="184"/>
-      <c r="F603" s="185" t="s">
+      <c r="H604" s="90" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B605" s="68"/>
+      <c r="C605" s="68"/>
+      <c r="D605" s="68"/>
+      <c r="E605" s="66"/>
+      <c r="F605" s="92" t="s">
         <v>2726</v>
       </c>
-      <c r="G603" s="184" t="s">
+      <c r="G605" s="66" t="s">
         <v>2729</v>
       </c>
-      <c r="H603" s="90" t="s">
-        <v>2855</v>
-      </c>
-    </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B604" s="182"/>
-      <c r="C604" s="182"/>
-      <c r="D604" s="182"/>
-      <c r="E604" s="184"/>
-      <c r="F604" s="185" t="s">
+      <c r="H605" s="90" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B606" s="68"/>
+      <c r="C606" s="68"/>
+      <c r="D606" s="68"/>
+      <c r="E606" s="66"/>
+      <c r="F606" s="92" t="s">
         <v>2727</v>
       </c>
-      <c r="G604" s="184" t="s">
+      <c r="G606" s="66" t="s">
         <v>2730</v>
       </c>
-      <c r="H604" s="90" t="s">
-        <v>2855</v>
-      </c>
-    </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B605" s="182"/>
-      <c r="C605" s="182"/>
-      <c r="D605" s="182">
+      <c r="H606" s="90" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B607" s="68"/>
+      <c r="C607" s="68"/>
+      <c r="D607" s="68">
         <v>5</v>
       </c>
-      <c r="E605" s="184" t="s">
+      <c r="E607" s="66" t="s">
         <v>2731</v>
       </c>
-      <c r="F605" s="185"/>
-      <c r="G605" s="184" t="s">
+      <c r="F607" s="92"/>
+      <c r="G607" s="66" t="s">
         <v>2738</v>
-      </c>
-      <c r="H605" s="90" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B606" s="182"/>
-      <c r="C606" s="182"/>
-      <c r="D606" s="182"/>
-      <c r="E606" s="184"/>
-      <c r="F606" s="185" t="s">
-        <v>2732</v>
-      </c>
-      <c r="G606" s="184" t="s">
-        <v>2735</v>
-      </c>
-      <c r="H606" s="90" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B607" s="182"/>
-      <c r="C607" s="182"/>
-      <c r="D607" s="182"/>
-      <c r="E607" s="184"/>
-      <c r="F607" s="185" t="s">
-        <v>2733</v>
-      </c>
-      <c r="G607" s="184" t="s">
-        <v>2736</v>
       </c>
       <c r="H607" s="90" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B608" s="182"/>
-      <c r="C608" s="182"/>
-      <c r="D608" s="182"/>
-      <c r="E608" s="184"/>
-      <c r="F608" s="185" t="s">
-        <v>2734</v>
-      </c>
-      <c r="G608" s="184" t="s">
-        <v>2737</v>
+      <c r="B608" s="68"/>
+      <c r="C608" s="68"/>
+      <c r="D608" s="68"/>
+      <c r="E608" s="66"/>
+      <c r="F608" s="92" t="s">
+        <v>2732</v>
+      </c>
+      <c r="G608" s="66" t="s">
+        <v>2735</v>
       </c>
       <c r="H608" s="90" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B609" s="182"/>
-      <c r="C609" s="182"/>
-      <c r="D609" s="182">
+      <c r="B609" s="68"/>
+      <c r="C609" s="68"/>
+      <c r="D609" s="68"/>
+      <c r="E609" s="66"/>
+      <c r="F609" s="92" t="s">
+        <v>2733</v>
+      </c>
+      <c r="G609" s="66" t="s">
+        <v>2736</v>
+      </c>
+      <c r="H609" s="90" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B610" s="68"/>
+      <c r="C610" s="68"/>
+      <c r="D610" s="68"/>
+      <c r="E610" s="66"/>
+      <c r="F610" s="92" t="s">
+        <v>2734</v>
+      </c>
+      <c r="G610" s="66" t="s">
+        <v>2737</v>
+      </c>
+      <c r="H610" s="90" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B611" s="68"/>
+      <c r="C611" s="68"/>
+      <c r="D611" s="68">
         <v>6</v>
       </c>
-      <c r="E609" s="184" t="s">
+      <c r="E611" s="66" t="s">
         <v>2745</v>
       </c>
-      <c r="F609" s="185" t="s">
+      <c r="F611" s="92" t="s">
         <v>2743</v>
       </c>
-      <c r="G609" s="184" t="s">
+      <c r="G611" s="66" t="s">
         <v>2744</v>
       </c>
-      <c r="H609" s="90" t="s">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B610" s="182"/>
-      <c r="C610" s="182"/>
-      <c r="D610" s="182"/>
-      <c r="E610" s="184"/>
-      <c r="F610" s="185" t="s">
+      <c r="H611" s="90" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B612" s="68"/>
+      <c r="C612" s="68"/>
+      <c r="D612" s="68"/>
+      <c r="E612" s="66"/>
+      <c r="F612" s="92" t="s">
         <v>2746</v>
       </c>
-      <c r="G610" s="184" t="s">
+      <c r="G612" s="66" t="s">
         <v>2747</v>
       </c>
-      <c r="H610" s="90" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B611" s="182"/>
-      <c r="C611" s="182"/>
-      <c r="D611" s="182">
+      <c r="H612" s="90" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B613" s="68"/>
+      <c r="C613" s="68"/>
+      <c r="D613" s="68">
         <v>7</v>
       </c>
-      <c r="E611" s="184" t="s">
+      <c r="E613" s="66" t="s">
         <v>2748</v>
       </c>
-      <c r="F611" s="185" t="s">
+      <c r="F613" s="92" t="s">
         <v>2749</v>
       </c>
-      <c r="G611" s="184" t="s">
+      <c r="G613" s="66" t="s">
         <v>2751</v>
       </c>
-      <c r="H611" s="90" t="s">
-        <v>2865</v>
-      </c>
-    </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B612" s="182"/>
-      <c r="C612" s="182"/>
-      <c r="D612" s="182"/>
-      <c r="E612" s="184"/>
-      <c r="F612" s="185" t="s">
+      <c r="H613" s="90" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B614" s="68"/>
+      <c r="C614" s="68"/>
+      <c r="D614" s="68"/>
+      <c r="E614" s="66"/>
+      <c r="F614" s="92" t="s">
         <v>2750</v>
       </c>
-      <c r="G612" s="184" t="s">
+      <c r="G614" s="66" t="s">
         <v>2752</v>
       </c>
-      <c r="H612" s="90" t="s">
-        <v>2870</v>
-      </c>
-    </row>
-    <row r="614" spans="1:12" s="174" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="176" t="s">
+      <c r="H614" s="90" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="616" spans="1:12" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A616" s="176" t="s">
         <v>2761</v>
       </c>
-      <c r="B614" s="171"/>
-      <c r="C614" s="171"/>
-      <c r="D614" s="171"/>
-      <c r="E614" s="172"/>
-      <c r="F614" s="173"/>
-      <c r="G614" s="172"/>
-      <c r="L614" s="175"/>
-    </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B615" s="182" t="s">
+      <c r="B616" s="171"/>
+      <c r="C616" s="171"/>
+      <c r="D616" s="171"/>
+      <c r="E616" s="172"/>
+      <c r="F616" s="173"/>
+      <c r="G616" s="172"/>
+      <c r="L616" s="175"/>
+    </row>
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B617" s="68" t="s">
         <v>2757</v>
       </c>
-      <c r="C615" s="182" t="s">
+      <c r="C617" s="68" t="s">
         <v>2758</v>
       </c>
-      <c r="D615" s="182">
+      <c r="D617" s="68">
         <v>1</v>
       </c>
-      <c r="E615" s="184" t="s">
+      <c r="E617" s="66" t="s">
         <v>2764</v>
       </c>
-      <c r="F615" s="185"/>
-      <c r="G615" s="184" t="s">
+      <c r="F617" s="92"/>
+      <c r="G617" s="66" t="s">
         <v>2759</v>
       </c>
-      <c r="H615" s="90" t="s">
+      <c r="H617" s="90" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B616" s="182"/>
-      <c r="C616" s="182"/>
-      <c r="D616" s="182"/>
-      <c r="E616" s="184"/>
-      <c r="F616" s="185"/>
-      <c r="G616" s="184"/>
-      <c r="H616" s="90"/>
-    </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B617" s="182" t="s">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B618" s="68"/>
+      <c r="C618" s="68"/>
+      <c r="D618" s="68"/>
+      <c r="E618" s="66"/>
+      <c r="F618" s="92"/>
+      <c r="G618" s="66"/>
+      <c r="H618" s="90"/>
+    </row>
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B619" s="68" t="s">
         <v>2757</v>
       </c>
-      <c r="C617" s="182" t="s">
+      <c r="C619" s="68" t="s">
         <v>2763</v>
       </c>
-      <c r="D617" s="182">
+      <c r="D619" s="68">
         <v>1</v>
       </c>
-      <c r="E617" s="184" t="s">
+      <c r="E619" s="66" t="s">
         <v>2765</v>
       </c>
-      <c r="F617" s="185"/>
-      <c r="G617" s="184" t="s">
+      <c r="F619" s="92"/>
+      <c r="G619" s="66" t="s">
         <v>2760</v>
       </c>
-      <c r="H617" s="90" t="s">
-        <v>2853</v>
-      </c>
-    </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B618" s="182"/>
-      <c r="C618" s="182"/>
-      <c r="D618" s="182"/>
-      <c r="E618" s="184"/>
-      <c r="F618" s="185"/>
-      <c r="G618" s="184"/>
-      <c r="H618" s="90"/>
-    </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B619" s="182" t="s">
+      <c r="H619" s="90" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B620" s="68"/>
+      <c r="C620" s="68"/>
+      <c r="D620" s="68"/>
+      <c r="E620" s="66"/>
+      <c r="F620" s="92"/>
+      <c r="G620" s="66"/>
+      <c r="H620" s="90"/>
+    </row>
+    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B621" s="68" t="s">
         <v>2762</v>
       </c>
-      <c r="C619" s="182" t="s">
+      <c r="C621" s="68" t="s">
         <v>2766</v>
       </c>
-      <c r="D619" s="182">
+      <c r="D621" s="68">
         <v>1</v>
       </c>
-      <c r="E619" s="184" t="s">
+      <c r="E621" s="66" t="s">
         <v>2767</v>
       </c>
-      <c r="F619" s="185"/>
-      <c r="G619" s="184">
+      <c r="F621" s="92"/>
+      <c r="G621" s="66">
         <v>0.7</v>
       </c>
-      <c r="H619" s="90" t="s">
+      <c r="H621" s="90" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B620" s="182"/>
-      <c r="C620" s="182"/>
-      <c r="D620" s="182">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B622" s="68"/>
+      <c r="C622" s="68"/>
+      <c r="D622" s="68">
         <v>2</v>
       </c>
-      <c r="E620" s="184" t="s">
+      <c r="E622" s="66" t="s">
         <v>2768</v>
       </c>
-      <c r="F620" s="185"/>
-      <c r="G620" s="184">
+      <c r="F622" s="92"/>
+      <c r="G622" s="66">
         <v>0.5</v>
       </c>
-      <c r="H620" s="90" t="s">
+      <c r="H622" s="90" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H621" s="90"/>
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B623" s="68"/>
+      <c r="C623" s="68"/>
+      <c r="D623" s="68"/>
+      <c r="E623" s="66"/>
+      <c r="F623" s="92"/>
+      <c r="G623" s="66"/>
+      <c r="H623" s="90"/>
+    </row>
+    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B624" s="68"/>
+      <c r="C624" s="68"/>
+      <c r="D624" s="68"/>
+      <c r="E624" s="66"/>
+      <c r="F624" s="92"/>
+      <c r="G624" s="66"/>
+    </row>
+    <row r="625" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B625" s="68"/>
+      <c r="C625" s="68"/>
+      <c r="D625" s="68"/>
+      <c r="E625" s="66"/>
+      <c r="F625" s="92"/>
+      <c r="G625" s="66"/>
+    </row>
+    <row r="626" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B626" s="68"/>
+      <c r="C626" s="68"/>
+      <c r="D626" s="68"/>
+      <c r="E626" s="66"/>
+      <c r="F626" s="92"/>
+      <c r="G626" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -37948,7 +38041,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H596:H612">
+  <conditionalFormatting sqref="H598:H614">
     <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -37959,7 +38052,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H616:H621">
+  <conditionalFormatting sqref="H618:H623">
     <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -37970,7 +38063,7 @@
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H615">
+  <conditionalFormatting sqref="H617">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -37991,8 +38084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H235" sqref="H235"/>
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -40813,7 +40906,7 @@
         <v>1574</v>
       </c>
       <c r="H191" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
       <c r="I191" s="57"/>
     </row>
@@ -40829,7 +40922,7 @@
         <v>1544</v>
       </c>
       <c r="H192" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
       <c r="I192" s="57"/>
     </row>
@@ -40845,7 +40938,7 @@
         <v>1545</v>
       </c>
       <c r="H193" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
       <c r="I193" s="57">
         <v>293</v>
@@ -40948,7 +41041,7 @@
         <v>2165</v>
       </c>
       <c r="H199" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
       <c r="I199" s="57"/>
     </row>
@@ -40964,7 +41057,7 @@
         <v>2165</v>
       </c>
       <c r="H200" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
       <c r="I200" s="57"/>
     </row>
@@ -41022,7 +41115,7 @@
         <v>1555</v>
       </c>
       <c r="H204" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
       <c r="I204" s="57"/>
     </row>
@@ -41038,7 +41131,7 @@
         <v>1556</v>
       </c>
       <c r="H205" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
       <c r="I205" s="57"/>
     </row>
@@ -41054,7 +41147,7 @@
         <v>2291</v>
       </c>
       <c r="H206" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
       <c r="I206" s="57"/>
     </row>
@@ -41074,7 +41167,7 @@
         <v>1561</v>
       </c>
       <c r="H207" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
       <c r="I207" s="57"/>
     </row>
@@ -41090,7 +41183,7 @@
         <v>1557</v>
       </c>
       <c r="H208" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
       <c r="I208" s="57"/>
     </row>
@@ -41106,7 +41199,7 @@
         <v>1565</v>
       </c>
       <c r="H209" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
       <c r="I209" s="57"/>
     </row>
@@ -41126,7 +41219,7 @@
         <v>1569</v>
       </c>
       <c r="H210" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
       <c r="I210" s="57"/>
     </row>
@@ -41142,7 +41235,7 @@
         <v>1570</v>
       </c>
       <c r="H211" s="90" t="s">
-        <v>2855</v>
+        <v>2842</v>
       </c>
       <c r="I211" s="57"/>
     </row>
@@ -41657,18 +41750,18 @@
   <sheetData>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>2838</v>
+        <v>2825</v>
       </c>
       <c r="D9" t="s">
-        <v>2839</v>
+        <v>2826</v>
       </c>
       <c r="F9" t="s">
-        <v>2841</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>2840</v>
+        <v>2827</v>
       </c>
     </row>
   </sheetData>
@@ -41695,13 +41788,13 @@
   <sheetData>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
-        <v>2876</v>
+        <v>2863</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>2877</v>
+        <v>2864</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>2878</v>
+        <v>2865</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>726</v>
@@ -41709,83 +41802,83 @@
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A5" s="21" t="s">
-        <v>2879</v>
+        <v>2866</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>2880</v>
+        <v>2867</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>2881</v>
+        <v>2868</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>2909</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A6" s="21" t="s">
-        <v>2882</v>
+        <v>2869</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>2883</v>
+        <v>2870</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>2884</v>
+        <v>2871</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>2910</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A7" s="21" t="s">
-        <v>2885</v>
+        <v>2872</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>2886</v>
+        <v>2873</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>2887</v>
+        <v>2874</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>2911</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
-        <v>2888</v>
+        <v>2875</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>2889</v>
+        <v>2876</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>2890</v>
+        <v>2877</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>2910</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A9" s="21" t="s">
-        <v>2891</v>
+        <v>2878</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>2892</v>
+        <v>2879</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>2893</v>
+        <v>2880</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>2910</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A10" s="21" t="s">
-        <v>2894</v>
+        <v>2881</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>2895</v>
+        <v>2882</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>2906</v>
+        <v>2893</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>727</v>
@@ -41793,13 +41886,13 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A11" s="21" t="s">
-        <v>2896</v>
+        <v>2883</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>2897</v>
+        <v>2884</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>2907</v>
+        <v>2894</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>727</v>
@@ -41807,13 +41900,13 @@
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A12" s="21" t="s">
-        <v>2898</v>
+        <v>2885</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>2899</v>
+        <v>2886</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>2908</v>
+        <v>2895</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>727</v>
@@ -41821,13 +41914,13 @@
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A13" s="21" t="s">
-        <v>2900</v>
+        <v>2887</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>2901</v>
+        <v>2888</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>2902</v>
+        <v>2889</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>728</v>
@@ -41835,16 +41928,16 @@
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.45">
       <c r="A14" s="21" t="s">
-        <v>2903</v>
+        <v>2890</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>2904</v>
+        <v>2891</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>2905</v>
+        <v>2892</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>2912</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.45">
